--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FC687F-FD56-724C-9F67-47A5A4804C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C14CCD-4562-8D4D-ADDA-B2F0FBA165DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2230,9 +2230,6 @@
     <t>https://static.tildacdn.com/stor3831-6233-4865-b332-316135643937/86231254.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3365-3630-4038-b231-646132386338/49382281.jpg</t>
   </si>
   <si>
@@ -2962,9 +2959,6 @@
     <t>https://static.tildacdn.com/stor3666-3461-4962-b465-303130656631/67009477.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3431-3431-4361-a233-366565323330/34035325.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor6463-6366-4266-b532-663062326630/10023487.jpg</t>
   </si>
   <si>
@@ -3125,6 +3119,12 @@
   </si>
   <si>
     <t>Картинка</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6635-3765-4165-b331-356235356262/-/format/webp/75675687.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3431-3131-4536-a439-663661366436/-/format/webp/25141076.jpg</t>
   </si>
 </sst>
 </file>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3553,10 +3553,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5324,7 +5324,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>736</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5332,7 +5332,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5340,7 +5340,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5348,7 +5348,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5356,7 +5356,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5364,7 +5364,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5372,7 +5372,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5380,7 +5380,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5388,7 +5388,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5412,7 +5412,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5420,7 +5420,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5436,7 +5436,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5476,7 +5476,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5484,7 +5484,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5492,7 +5492,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,7 +5500,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5508,7 +5508,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5516,7 +5516,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5524,7 +5524,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5556,7 +5556,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5564,7 +5564,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5572,7 +5572,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5580,7 +5580,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5596,7 +5596,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5604,7 +5604,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5620,7 +5620,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5636,7 +5636,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5652,7 +5652,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5660,7 +5660,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5668,7 +5668,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5676,7 +5676,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5684,7 +5684,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5692,7 +5692,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5700,7 +5700,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5708,7 +5708,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5716,7 +5716,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5724,7 +5724,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5740,7 +5740,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5748,7 +5748,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5756,7 +5756,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5772,7 +5772,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5796,7 +5796,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5804,7 +5804,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5812,7 +5812,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5820,7 +5820,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5828,7 +5828,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5836,7 +5836,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5844,7 +5844,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5852,7 +5852,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5860,7 +5860,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5868,7 +5868,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5876,7 +5876,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5884,7 +5884,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5892,7 +5892,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5900,7 +5900,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5908,7 +5908,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5916,7 +5916,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5924,7 +5924,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5940,7 +5940,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5948,7 +5948,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5956,7 +5956,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5964,7 +5964,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5972,7 +5972,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5980,7 +5980,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5988,7 +5988,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5996,7 +5996,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6004,7 +6004,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6012,7 +6012,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6020,7 +6020,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6028,7 +6028,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6036,7 +6036,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6052,7 +6052,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6060,7 +6060,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6076,7 +6076,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6100,7 +6100,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6108,7 +6108,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6116,7 +6116,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6124,7 +6124,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6140,7 +6140,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6148,7 +6148,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6156,7 +6156,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6164,7 +6164,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6172,7 +6172,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6188,7 +6188,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6196,7 +6196,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6204,7 +6204,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6212,7 +6212,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6228,7 +6228,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6236,7 +6236,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6244,7 +6244,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6252,7 +6252,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6260,7 +6260,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6268,7 +6268,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6276,7 +6276,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6292,7 +6292,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
         <v>341</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6324,7 +6324,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6332,7 +6332,7 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6348,7 +6348,7 @@
         <v>347</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6356,7 +6356,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6364,7 +6364,7 @@
         <v>349</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6372,7 +6372,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6380,7 +6380,7 @@
         <v>351</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6388,7 +6388,7 @@
         <v>352</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6396,7 +6396,7 @@
         <v>353</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6404,7 +6404,7 @@
         <v>354</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6412,7 +6412,7 @@
         <v>355</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6420,7 +6420,7 @@
         <v>356</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6428,7 +6428,7 @@
         <v>357</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
         <v>358</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
         <v>359</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6452,7 +6452,7 @@
         <v>360</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6460,7 +6460,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
         <v>361</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6476,7 +6476,7 @@
         <v>362</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
         <v>363</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
         <v>364</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6500,7 +6500,7 @@
         <v>365</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6508,7 +6508,7 @@
         <v>366</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>367</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6524,7 +6524,7 @@
         <v>368</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
         <v>369</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6540,7 +6540,7 @@
         <v>370</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6548,7 +6548,7 @@
         <v>371</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6556,7 +6556,7 @@
         <v>372</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6564,7 +6564,7 @@
         <v>373</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6572,7 +6572,7 @@
         <v>374</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6580,7 +6580,7 @@
         <v>375</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6588,7 +6588,7 @@
         <v>376</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6596,7 +6596,7 @@
         <v>377</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6604,7 +6604,7 @@
         <v>378</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6612,7 +6612,7 @@
         <v>379</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6620,7 +6620,7 @@
         <v>380</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6628,7 +6628,7 @@
         <v>381</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
         <v>382</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6644,7 +6644,7 @@
         <v>383</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
         <v>384</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6660,7 +6660,7 @@
         <v>385</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6668,7 +6668,7 @@
         <v>386</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6676,7 +6676,7 @@
         <v>387</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
         <v>388</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6692,7 +6692,7 @@
         <v>389</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6700,7 +6700,7 @@
         <v>390</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6708,7 +6708,7 @@
         <v>391</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
         <v>392</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>393</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
         <v>394</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6740,7 +6740,7 @@
         <v>395</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
         <v>396</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6756,7 +6756,7 @@
         <v>397</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6764,7 +6764,7 @@
         <v>398</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6772,7 +6772,7 @@
         <v>399</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6780,7 +6780,7 @@
         <v>400</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>401</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6796,7 +6796,7 @@
         <v>402</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6804,7 +6804,7 @@
         <v>403</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
         <v>404</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6828,7 +6828,7 @@
         <v>406</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6836,7 +6836,7 @@
         <v>407</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6844,7 +6844,7 @@
         <v>408</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6852,7 +6852,7 @@
         <v>409</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6860,7 +6860,7 @@
         <v>410</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6868,7 +6868,7 @@
         <v>411</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6876,7 +6876,7 @@
         <v>412</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>413</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6892,7 +6892,7 @@
         <v>414</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6900,7 +6900,7 @@
         <v>415</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6908,7 +6908,7 @@
         <v>416</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6916,7 +6916,7 @@
         <v>417</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6924,7 +6924,7 @@
         <v>418</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6932,7 +6932,7 @@
         <v>419</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6940,7 +6940,7 @@
         <v>420</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6948,7 +6948,7 @@
         <v>421</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6956,7 +6956,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6964,7 +6964,7 @@
         <v>423</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6972,7 +6972,7 @@
         <v>424</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6980,7 +6980,7 @@
         <v>425</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6988,7 +6988,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6996,7 +6996,7 @@
         <v>427</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7004,7 +7004,7 @@
         <v>428</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7012,7 +7012,7 @@
         <v>429</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7020,7 +7020,7 @@
         <v>430</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7028,7 +7028,7 @@
         <v>431</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7036,7 +7036,7 @@
         <v>432</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7044,7 +7044,7 @@
         <v>433</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7052,7 +7052,7 @@
         <v>434</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7060,7 +7060,7 @@
         <v>435</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7068,7 +7068,7 @@
         <v>436</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7076,7 +7076,7 @@
         <v>437</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7084,7 +7084,7 @@
         <v>438</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7092,7 +7092,7 @@
         <v>439</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7100,7 +7100,7 @@
         <v>440</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7108,7 +7108,7 @@
         <v>441</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7116,7 +7116,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7124,7 +7124,7 @@
         <v>443</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
         <v>444</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7140,7 +7140,7 @@
         <v>445</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7148,7 +7148,7 @@
         <v>446</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7156,7 +7156,7 @@
         <v>447</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7164,7 +7164,7 @@
         <v>448</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7172,7 +7172,7 @@
         <v>449</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7180,7 +7180,7 @@
         <v>450</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7188,7 +7188,7 @@
         <v>451</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7196,7 +7196,7 @@
         <v>452</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
         <v>453</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7212,7 +7212,7 @@
         <v>454</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7220,7 +7220,7 @@
         <v>455</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7228,7 +7228,7 @@
         <v>456</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
         <v>457</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7244,7 +7244,7 @@
         <v>458</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
         <v>459</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7260,7 +7260,7 @@
         <v>460</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7268,7 +7268,7 @@
         <v>461</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7276,7 +7276,7 @@
         <v>462</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
         <v>463</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>980</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7292,7 +7292,7 @@
         <v>464</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7300,7 +7300,7 @@
         <v>465</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
         <v>466</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7316,7 +7316,7 @@
         <v>467</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7324,7 +7324,7 @@
         <v>468</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7332,7 +7332,7 @@
         <v>469</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7340,7 +7340,7 @@
         <v>470</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7348,7 +7348,7 @@
         <v>471</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
         <v>472</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7364,7 +7364,7 @@
         <v>473</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7372,7 +7372,7 @@
         <v>474</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7380,7 +7380,7 @@
         <v>475</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7388,7 +7388,7 @@
         <v>476</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7396,7 +7396,7 @@
         <v>477</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7404,7 +7404,7 @@
         <v>478</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7412,7 +7412,7 @@
         <v>479</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -7420,7 +7420,7 @@
         <v>480</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>481</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7436,7 +7436,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
         <v>483</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7452,7 +7452,7 @@
         <v>484</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
         <v>485</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7468,7 +7468,7 @@
         <v>486</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7476,7 +7476,7 @@
         <v>487</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7484,7 +7484,7 @@
         <v>488</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
         <v>489</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7500,7 +7500,7 @@
         <v>490</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7508,7 +7508,7 @@
         <v>491</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7516,7 +7516,7 @@
         <v>492</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7524,7 +7524,7 @@
         <v>493</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7532,7 +7532,7 @@
         <v>494</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7540,7 +7540,7 @@
         <v>495</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7548,7 +7548,7 @@
         <v>496</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7556,7 +7556,7 @@
         <v>497</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7564,7 +7564,7 @@
         <v>498</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7572,7 +7572,7 @@
         <v>499</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7580,7 +7580,7 @@
         <v>500</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7588,7 +7588,7 @@
         <v>501</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7596,7 +7596,7 @@
         <v>502</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>503</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7612,7 +7612,7 @@
         <v>504</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7620,7 +7620,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7628,7 +7628,7 @@
         <v>506</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7636,7 +7636,7 @@
         <v>507</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -7644,7 +7644,7 @@
         <v>508</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7652,7 +7652,7 @@
         <v>509</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7660,7 +7660,7 @@
         <v>510</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -7668,7 +7668,7 @@
         <v>511</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7676,7 +7676,7 @@
         <v>512</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7684,7 +7684,7 @@
         <v>513</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7692,7 +7692,7 @@
         <v>514</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7700,7 +7700,7 @@
         <v>515</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -7925,7 +7925,7 @@
     <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
     <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
     <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B222" r:id="rId221" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
     <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
@@ -8170,59 +8170,58 @@
     <hyperlink ref="B464" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
     <hyperlink ref="B465" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
     <hyperlink ref="B466" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="B467" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="B468" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="B469" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B470" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="B471" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B472" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="B473" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B474" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="B475" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B476" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="B477" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B478" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="B479" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B480" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="B481" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B482" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="B483" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B484" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="B485" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B486" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="B487" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B488" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="B489" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B490" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="B491" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B492" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="B493" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B494" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="B495" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B496" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="B497" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B498" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="B499" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B500" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="B501" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B502" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="B503" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B504" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="B505" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B506" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="B507" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B508" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="B509" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B510" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="B511" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B512" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="B513" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B514" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="B515" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B516" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="B517" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B518" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="B519" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B468" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B469" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B470" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B471" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B472" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B473" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B474" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B475" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B476" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B477" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B478" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B479" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B480" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B481" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B482" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B483" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B484" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B485" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B486" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B487" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B488" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B489" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B490" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B491" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B492" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B493" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B494" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B495" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B496" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B497" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B498" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B499" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B500" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B501" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B502" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B503" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B504" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B505" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B506" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B507" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B508" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B509" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B510" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B511" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B512" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B513" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B514" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B515" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B516" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B517" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B518" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B519" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C14CCD-4562-8D4D-ADDA-B2F0FBA165DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A2B40-CF0E-3E42-B130-D04FBD95147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,9 +1546,6 @@
     <t>Diablo 4 + Vessel of Hatred PS4/PS5</t>
   </si>
   <si>
-    <t>Ghost of Yote PS5</t>
-  </si>
-  <si>
     <t>Borderlands 4 PS5</t>
   </si>
   <si>
@@ -3125,6 +3122,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3431-3131-4536-a439-663661366436/-/format/webp/25141076.jpg</t>
+  </si>
+  <si>
+    <t>Ghost of Yotei PS5</t>
   </si>
 </sst>
 </file>
@@ -3541,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3553,10 +3553,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3588,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3604,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3612,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3620,7 +3620,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3636,7 +3636,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3644,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3652,7 +3652,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3660,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3668,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3684,7 +3684,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3692,7 +3692,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3708,7 +3708,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3716,7 +3716,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3724,7 +3724,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3732,7 +3732,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3740,7 +3740,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3748,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3764,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3780,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3788,7 +3788,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3796,7 +3796,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3820,7 +3820,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3860,7 +3860,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3868,7 +3868,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3876,7 +3876,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3884,7 +3884,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3900,7 +3900,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3924,7 +3924,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3932,7 +3932,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3940,7 +3940,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3948,7 +3948,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3956,7 +3956,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3964,7 +3964,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3972,7 +3972,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3980,7 +3980,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3996,7 +3996,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4004,7 +4004,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4020,7 +4020,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4028,7 +4028,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4036,7 +4036,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4052,7 +4052,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4060,7 +4060,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4068,7 +4068,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4084,7 +4084,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4092,7 +4092,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4108,7 +4108,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4124,7 +4124,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4132,7 +4132,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4140,7 +4140,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4148,7 +4148,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4156,7 +4156,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4164,7 +4164,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4172,7 +4172,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4180,7 +4180,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4188,7 +4188,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4196,7 +4196,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4204,7 +4204,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4212,7 +4212,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4236,7 +4236,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4244,7 +4244,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4252,7 +4252,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4260,7 +4260,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4268,7 +4268,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4292,7 +4292,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4300,7 +4300,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4308,7 +4308,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4324,7 +4324,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4348,7 +4348,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4356,7 +4356,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +4364,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4372,7 +4372,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4388,7 +4388,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,7 +4396,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,7 +4404,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4420,7 +4420,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4428,7 +4428,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4436,7 +4436,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4444,7 +4444,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4452,7 +4452,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4460,7 +4460,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4468,7 +4468,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4476,7 +4476,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4484,7 +4484,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4492,7 +4492,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4508,7 +4508,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4516,7 +4516,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4532,7 +4532,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4540,7 +4540,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4556,7 +4556,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,7 +4564,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4572,7 +4572,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,7 +4580,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4588,7 +4588,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4596,7 +4596,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4604,7 +4604,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4612,7 +4612,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4620,7 +4620,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4644,7 +4644,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4660,7 +4660,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4668,7 +4668,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4676,7 +4676,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4684,7 +4684,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4692,7 +4692,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4700,7 +4700,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4708,7 +4708,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4716,7 +4716,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4724,7 +4724,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4732,7 +4732,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4740,7 +4740,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4748,7 +4748,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4756,7 +4756,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4764,7 +4764,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4780,7 +4780,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4796,7 +4796,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4804,7 +4804,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4820,7 +4820,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4828,7 +4828,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4836,7 +4836,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4852,7 +4852,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4860,7 +4860,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4868,7 +4868,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4876,7 +4876,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4892,7 +4892,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4900,7 +4900,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4916,7 +4916,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4924,7 +4924,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4932,7 +4932,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4940,7 +4940,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4956,7 +4956,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4964,7 +4964,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4972,7 +4972,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4980,7 +4980,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4988,7 +4988,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4996,7 +4996,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5004,7 +5004,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5012,7 +5012,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5020,7 +5020,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5036,7 +5036,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5044,7 +5044,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5052,7 +5052,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5060,7 +5060,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5068,7 +5068,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5076,7 +5076,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5084,7 +5084,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5092,7 +5092,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5100,7 +5100,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5108,7 +5108,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5124,7 +5124,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5132,7 +5132,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5140,7 +5140,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5148,7 +5148,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5156,7 +5156,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5164,7 +5164,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5172,7 +5172,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5180,7 +5180,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5188,7 +5188,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5196,7 +5196,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5204,7 +5204,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5212,7 +5212,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5220,7 +5220,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5228,7 +5228,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5236,7 +5236,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5244,7 +5244,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5252,7 +5252,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5260,7 +5260,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5268,7 +5268,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5276,7 +5276,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5284,7 +5284,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5300,7 +5300,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5324,7 +5324,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5332,7 +5332,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5340,7 +5340,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5348,7 +5348,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5356,7 +5356,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5364,7 +5364,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5372,7 +5372,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5380,7 +5380,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5388,7 +5388,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5396,7 +5396,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5412,7 +5412,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5420,7 +5420,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5436,7 +5436,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5444,7 +5444,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5452,7 +5452,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5460,7 +5460,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5476,7 +5476,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5484,7 +5484,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5492,7 +5492,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,7 +5500,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5508,7 +5508,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5516,7 +5516,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5524,7 +5524,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5532,7 +5532,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5540,7 +5540,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5556,7 +5556,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5564,7 +5564,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5572,7 +5572,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5580,7 +5580,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5588,7 +5588,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5596,7 +5596,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5604,7 +5604,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5612,7 +5612,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5620,7 +5620,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5636,7 +5636,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5644,7 +5644,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5652,7 +5652,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5660,7 +5660,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5668,7 +5668,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5676,7 +5676,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5684,7 +5684,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5692,7 +5692,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5700,7 +5700,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5708,7 +5708,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5716,7 +5716,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5724,7 +5724,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5740,7 +5740,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5748,7 +5748,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5756,7 +5756,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5772,7 +5772,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5788,7 +5788,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5796,7 +5796,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5804,7 +5804,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5812,7 +5812,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5820,7 +5820,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5828,7 +5828,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5836,7 +5836,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5844,7 +5844,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5852,7 +5852,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5860,7 +5860,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5868,7 +5868,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5876,7 +5876,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5884,7 +5884,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5892,7 +5892,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5900,7 +5900,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5908,7 +5908,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5916,7 +5916,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5924,7 +5924,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5940,7 +5940,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5948,7 +5948,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5956,7 +5956,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5964,7 +5964,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5972,7 +5972,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5980,7 +5980,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5988,7 +5988,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5996,7 +5996,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6004,7 +6004,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6012,7 +6012,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6020,7 +6020,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6028,7 +6028,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6036,7 +6036,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6052,7 +6052,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6060,7 +6060,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6068,7 +6068,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6076,7 +6076,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6084,7 +6084,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6100,7 +6100,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6108,7 +6108,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6116,7 +6116,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6124,7 +6124,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6132,7 +6132,7 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6140,7 +6140,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6148,7 +6148,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6156,7 +6156,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6164,7 +6164,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6172,7 +6172,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6188,7 +6188,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6196,7 +6196,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6204,7 +6204,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6212,7 +6212,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6220,7 +6220,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6228,7 +6228,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6236,7 +6236,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6244,7 +6244,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6252,7 +6252,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6260,7 +6260,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6268,7 +6268,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6276,7 +6276,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6292,7 +6292,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
         <v>341</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6316,7 +6316,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6324,7 +6324,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6332,7 +6332,7 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6340,7 +6340,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6348,7 +6348,7 @@
         <v>347</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6356,7 +6356,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6364,7 +6364,7 @@
         <v>349</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6372,7 +6372,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6380,7 +6380,7 @@
         <v>351</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6388,7 +6388,7 @@
         <v>352</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6396,7 +6396,7 @@
         <v>353</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6404,7 +6404,7 @@
         <v>354</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6412,7 +6412,7 @@
         <v>355</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6420,7 +6420,7 @@
         <v>356</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6428,7 +6428,7 @@
         <v>357</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
         <v>358</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
         <v>359</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6452,7 +6452,7 @@
         <v>360</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6460,7 +6460,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
         <v>361</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6476,7 +6476,7 @@
         <v>362</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
         <v>363</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6492,7 +6492,7 @@
         <v>364</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6500,7 +6500,7 @@
         <v>365</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6508,7 +6508,7 @@
         <v>366</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>367</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6524,7 +6524,7 @@
         <v>368</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6532,7 +6532,7 @@
         <v>369</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6540,7 +6540,7 @@
         <v>370</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6548,7 +6548,7 @@
         <v>371</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6556,7 +6556,7 @@
         <v>372</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6564,7 +6564,7 @@
         <v>373</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6572,7 +6572,7 @@
         <v>374</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6580,7 +6580,7 @@
         <v>375</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6588,7 +6588,7 @@
         <v>376</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6596,7 +6596,7 @@
         <v>377</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6604,7 +6604,7 @@
         <v>378</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6612,7 +6612,7 @@
         <v>379</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6620,7 +6620,7 @@
         <v>380</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6628,7 +6628,7 @@
         <v>381</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
         <v>382</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6644,7 +6644,7 @@
         <v>383</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
         <v>384</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6660,7 +6660,7 @@
         <v>385</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6668,7 +6668,7 @@
         <v>386</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6676,7 +6676,7 @@
         <v>387</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
         <v>388</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6692,7 +6692,7 @@
         <v>389</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6700,7 +6700,7 @@
         <v>390</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6708,7 +6708,7 @@
         <v>391</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
         <v>392</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>393</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
         <v>394</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6740,7 +6740,7 @@
         <v>395</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6748,7 +6748,7 @@
         <v>396</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6756,7 +6756,7 @@
         <v>397</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6764,7 +6764,7 @@
         <v>398</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6772,7 +6772,7 @@
         <v>399</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6780,7 +6780,7 @@
         <v>400</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6788,7 +6788,7 @@
         <v>401</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6796,7 +6796,7 @@
         <v>402</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6804,7 +6804,7 @@
         <v>403</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
         <v>404</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6828,7 +6828,7 @@
         <v>406</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6836,7 +6836,7 @@
         <v>407</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6844,7 +6844,7 @@
         <v>408</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6852,7 +6852,7 @@
         <v>409</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6860,7 +6860,7 @@
         <v>410</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6868,7 +6868,7 @@
         <v>411</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6876,7 +6876,7 @@
         <v>412</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6884,7 +6884,7 @@
         <v>413</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6892,7 +6892,7 @@
         <v>414</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6900,7 +6900,7 @@
         <v>415</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6908,7 +6908,7 @@
         <v>416</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6916,7 +6916,7 @@
         <v>417</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6924,7 +6924,7 @@
         <v>418</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6932,7 +6932,7 @@
         <v>419</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6940,7 +6940,7 @@
         <v>420</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6948,7 +6948,7 @@
         <v>421</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6956,7 +6956,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6964,7 +6964,7 @@
         <v>423</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6972,7 +6972,7 @@
         <v>424</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6980,7 +6980,7 @@
         <v>425</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6988,7 +6988,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6996,7 +6996,7 @@
         <v>427</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7004,7 +7004,7 @@
         <v>428</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7012,7 +7012,7 @@
         <v>429</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7020,7 +7020,7 @@
         <v>430</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7028,7 +7028,7 @@
         <v>431</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7036,7 +7036,7 @@
         <v>432</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7044,7 +7044,7 @@
         <v>433</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7052,7 +7052,7 @@
         <v>434</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7060,7 +7060,7 @@
         <v>435</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7068,7 +7068,7 @@
         <v>436</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7076,7 +7076,7 @@
         <v>437</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7084,7 +7084,7 @@
         <v>438</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7092,7 +7092,7 @@
         <v>439</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7100,7 +7100,7 @@
         <v>440</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7108,7 +7108,7 @@
         <v>441</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7116,7 +7116,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7124,7 +7124,7 @@
         <v>443</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
         <v>444</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7140,7 +7140,7 @@
         <v>445</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7148,7 +7148,7 @@
         <v>446</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7156,7 +7156,7 @@
         <v>447</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7164,7 +7164,7 @@
         <v>448</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7172,7 +7172,7 @@
         <v>449</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7180,7 +7180,7 @@
         <v>450</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7188,7 +7188,7 @@
         <v>451</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7196,7 +7196,7 @@
         <v>452</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
         <v>453</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7212,7 +7212,7 @@
         <v>454</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7220,7 +7220,7 @@
         <v>455</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7228,7 +7228,7 @@
         <v>456</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
         <v>457</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7244,7 +7244,7 @@
         <v>458</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
         <v>459</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7260,7 +7260,7 @@
         <v>460</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7268,7 +7268,7 @@
         <v>461</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7276,7 +7276,7 @@
         <v>462</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7284,7 +7284,7 @@
         <v>463</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7292,7 +7292,7 @@
         <v>464</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7300,7 +7300,7 @@
         <v>465</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7308,7 +7308,7 @@
         <v>466</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7316,7 +7316,7 @@
         <v>467</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7324,7 +7324,7 @@
         <v>468</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7332,7 +7332,7 @@
         <v>469</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7340,7 +7340,7 @@
         <v>470</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7348,7 +7348,7 @@
         <v>471</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7356,7 +7356,7 @@
         <v>472</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7364,7 +7364,7 @@
         <v>473</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7372,7 +7372,7 @@
         <v>474</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7380,7 +7380,7 @@
         <v>475</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7388,7 +7388,7 @@
         <v>476</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7396,7 +7396,7 @@
         <v>477</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7404,7 +7404,7 @@
         <v>478</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7412,7 +7412,7 @@
         <v>479</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -7420,7 +7420,7 @@
         <v>480</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>481</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7436,7 +7436,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
         <v>483</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7452,7 +7452,7 @@
         <v>484</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7460,7 +7460,7 @@
         <v>485</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7468,7 +7468,7 @@
         <v>486</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7476,7 +7476,7 @@
         <v>487</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7484,7 +7484,7 @@
         <v>488</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7492,7 +7492,7 @@
         <v>489</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7500,7 +7500,7 @@
         <v>490</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7508,7 +7508,7 @@
         <v>491</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7516,7 +7516,7 @@
         <v>492</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7524,7 +7524,7 @@
         <v>493</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7532,7 +7532,7 @@
         <v>494</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7540,7 +7540,7 @@
         <v>495</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7548,7 +7548,7 @@
         <v>496</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7556,7 +7556,7 @@
         <v>497</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7564,7 +7564,7 @@
         <v>498</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7572,7 +7572,7 @@
         <v>499</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7580,7 +7580,7 @@
         <v>500</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7588,7 +7588,7 @@
         <v>501</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7596,7 +7596,7 @@
         <v>502</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>503</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7612,7 +7612,7 @@
         <v>504</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7620,7 +7620,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7628,7 +7628,7 @@
         <v>506</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7636,71 +7636,71 @@
         <v>507</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>508</v>
+        <v>1034</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A2B40-CF0E-3E42-B130-D04FBD95147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B445ECF-4C33-394B-AA40-4925534CDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1036">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -3125,6 +3125,9 @@
   </si>
   <si>
     <t>Ghost of Yotei PS5</t>
+  </si>
+  <si>
+    <t>Ghost of Yote PS5</t>
   </si>
 </sst>
 </file>
@@ -3539,10 +3542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A512" sqref="A512"/>
+      <selection activeCell="A526" sqref="A526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7701,6 +7704,14 @@
       </c>
       <c r="B519" s="2" t="s">
         <v>1029</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -8222,6 +8233,7 @@
     <hyperlink ref="B517" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
     <hyperlink ref="B518" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
     <hyperlink ref="B519" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B520" r:id="rId518" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B445ECF-4C33-394B-AA40-4925534CDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023FD0D-9245-4545-A105-316EAEB10241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,9 +1552,6 @@
     <t>Dying Light: The Beast PS5</t>
   </si>
   <si>
-    <t>Claws of Awaji – Assassin's Creed Shadows PS5</t>
-  </si>
-  <si>
     <t>Contra: Operation Galuga PS4/PS5</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>Ghost of Yote PS5</t>
+  </si>
+  <si>
+    <t>Claws of Awaji Assassin's Creed Shadows PS5</t>
   </si>
 </sst>
 </file>
@@ -3545,7 +3545,7 @@
   <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A526" sqref="A526"/>
+      <selection activeCell="A515" sqref="A515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,7 +4439,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,7 +5079,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5119,7 +5119,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5839,7 +5839,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6191,7 +6191,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
         <v>341</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>347</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6367,7 +6367,7 @@
         <v>349</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>351</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>352</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>353</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>354</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>355</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>357</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>358</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>359</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>360</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>361</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>362</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>363</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>364</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>365</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>366</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>367</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>368</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
         <v>369</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>370</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>371</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>372</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>373</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>374</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>375</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>376</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>377</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6607,7 @@
         <v>378</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>379</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>380</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>381</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>382</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>383</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>384</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>385</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>386</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>387</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
         <v>388</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>389</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>390</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>391</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>392</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>393</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>394</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>395</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>396</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>397</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>398</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>399</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>400</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>401</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>402</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>403</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>404</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>406</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>407</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>408</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>409</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>410</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>411</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>412</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>413</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>414</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>415</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>416</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>417</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>418</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>419</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>420</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>421</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +6967,7 @@
         <v>423</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>424</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>425</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>427</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>428</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>429</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>430</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>431</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>432</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>433</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +7055,7 @@
         <v>434</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>435</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>436</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>437</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>438</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>439</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>440</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>441</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>443</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>444</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7143,7 @@
         <v>445</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>446</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>447</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>448</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>449</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>450</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>451</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>452</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>453</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>454</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>455</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>456</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>457</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>458</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>459</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>460</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>461</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>462</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>463</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
         <v>464</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>465</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +7311,7 @@
         <v>466</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>467</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>468</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>469</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>470</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>471</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>472</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>473</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>474</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>475</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>476</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>477</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>478</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,7 +7415,7 @@
         <v>479</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -7423,7 +7423,7 @@
         <v>480</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>481</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7447,7 +7447,7 @@
         <v>483</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>484</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>485</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>486</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>487</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>488</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7495,7 +7495,7 @@
         <v>489</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>490</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>491</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7519,7 +7519,7 @@
         <v>492</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>493</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>494</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>495</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>496</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +7559,7 @@
         <v>497</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>498</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>499</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>500</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>501</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>502</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>503</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>504</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>506</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,15 +7639,15 @@
         <v>507</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7655,7 +7655,7 @@
         <v>508</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7663,55 +7663,55 @@
         <v>509</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>510</v>
+        <v>1035</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023FD0D-9245-4545-A105-316EAEB10241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACF017-086A-104F-89FC-03716139DCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3127,7 +3127,7 @@
     <t>Ghost of Yote PS5</t>
   </si>
   <si>
-    <t>Claws of Awaji Assassin's Creed Shadows PS5</t>
+    <t>Claws of Awaji  Assassin's Creed Shadows PS5</t>
   </si>
 </sst>
 </file>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACF017-086A-104F-89FC-03716139DCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6BED38-2E3D-2046-AE2A-3DE20AF79466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,9 +1699,6 @@
     <t>https://static.tildacdn.com/stor6665-3162-4431-a362-306433383237/23620162.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6631-3533-4330-b039-656631336261/55271211.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3964-6162-4332-b637-336639616561/32909786.jpg</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>Claws of Awaji  Assassin's Creed Shadows PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3038-3463-4562-a439-353832336165/-/format/webp/53081436.jpg</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="A515" sqref="A515"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>559</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,7 +4439,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,7 +5079,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5119,7 +5119,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5839,7 +5839,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6191,7 +6191,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
         <v>341</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>342</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>343</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>344</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>345</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>346</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>347</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>348</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6367,7 +6367,7 @@
         <v>349</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>350</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>351</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>352</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>353</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>354</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>355</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>356</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>357</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>358</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>359</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>360</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>361</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>362</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>363</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>364</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>365</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>366</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>367</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>368</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
         <v>369</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>370</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>371</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>372</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>373</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>374</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>375</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>376</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>377</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6607,7 @@
         <v>378</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>379</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>380</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>381</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>382</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>383</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>384</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>385</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>386</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>387</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
         <v>388</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>389</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>390</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>391</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>392</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>393</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>394</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>395</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>396</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>397</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>398</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>399</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>400</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>401</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>402</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>403</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>404</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>405</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>406</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>407</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>408</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>409</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>410</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>411</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>412</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>413</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>414</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>415</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>416</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>417</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>418</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>419</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>420</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>421</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>422</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +6967,7 @@
         <v>423</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>424</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>425</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>426</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>427</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>428</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>429</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>430</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>431</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>432</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>433</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +7055,7 @@
         <v>434</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>435</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>436</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>437</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>438</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>439</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>440</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>441</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>442</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>443</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>444</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7143,7 @@
         <v>445</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>446</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>447</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>448</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>449</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>450</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>451</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>452</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>453</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>454</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>455</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>456</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>457</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>458</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>459</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>460</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>461</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>462</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>463</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
         <v>464</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>465</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +7311,7 @@
         <v>466</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>467</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>468</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>469</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>470</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>471</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>472</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>473</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>474</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>475</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>476</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>477</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>478</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,7 +7415,7 @@
         <v>479</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -7423,7 +7423,7 @@
         <v>480</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>481</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>482</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7447,7 +7447,7 @@
         <v>483</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>484</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>485</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>486</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>487</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>488</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7495,7 +7495,7 @@
         <v>489</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>490</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>491</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7519,7 +7519,7 @@
         <v>492</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>493</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>494</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>495</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>496</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +7559,7 @@
         <v>497</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>498</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>499</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>500</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>501</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>502</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>503</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>504</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>505</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>506</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,15 +7639,15 @@
         <v>507</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7655,7 +7655,7 @@
         <v>508</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7663,15 +7663,15 @@
         <v>509</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>510</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>511</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7695,7 +7695,7 @@
         <v>512</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,15 +7703,15 @@
         <v>513</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -7761,479 +7761,478 @@
     <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId221" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B302" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B303" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B304" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B305" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B306" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B307" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B308" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B309" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B310" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B311" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B312" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B313" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B314" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B315" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B316" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B317" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B318" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B319" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B320" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B321" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B322" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B323" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B324" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B325" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B326" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B327" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B328" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B329" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B330" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B331" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B332" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B333" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B334" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B335" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B336" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B337" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B338" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B339" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B340" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B341" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B342" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B343" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B344" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B345" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B346" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B347" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B348" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B349" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B350" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B351" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B352" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B353" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B354" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B355" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B356" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B357" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B358" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B359" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B360" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B361" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B362" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B363" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B364" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B365" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B366" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B367" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B368" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B369" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B370" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B371" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B372" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B373" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B374" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B375" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B376" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B377" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B378" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B379" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B380" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B381" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B382" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B383" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B384" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B385" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B386" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B387" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B388" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B389" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B390" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B391" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B392" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B393" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B394" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B395" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B396" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B397" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B398" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B399" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B400" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B401" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B402" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B403" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B404" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B405" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B406" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B407" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B408" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B409" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B410" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B411" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B412" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B413" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B414" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B415" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B416" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B417" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B418" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B419" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B420" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B421" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B422" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B423" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B424" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B425" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B426" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B427" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B428" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B429" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B430" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B431" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B432" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B433" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B434" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B435" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B436" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B437" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B438" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B439" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B440" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B441" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B442" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B443" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B444" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B445" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B446" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B447" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="B448" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="B449" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B450" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="B451" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B452" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="B453" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B454" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="B455" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B456" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="B457" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B458" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="B459" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B460" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="B461" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B462" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="B463" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B464" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="B465" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B466" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="B468" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="B469" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B470" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="B471" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B472" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="B473" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B474" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="B475" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B476" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="B477" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B478" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="B479" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B480" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="B481" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B482" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="B483" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B484" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="B485" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B486" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="B487" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B488" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="B489" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B490" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="B491" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B492" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="B493" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B494" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="B495" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B496" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="B497" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B498" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="B499" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B500" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="B501" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B502" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="B503" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B504" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="B505" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B506" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="B507" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B508" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="B509" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B510" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="B511" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B512" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="B513" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B514" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="B515" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B516" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="B517" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B518" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="B519" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B520" r:id="rId518" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B185" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId220" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B242" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B243" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B244" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B245" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B246" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B247" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B248" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B249" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B250" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B274" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B275" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B276" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B277" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B278" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B279" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B280" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B281" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B282" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B283" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B284" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B285" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B286" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B287" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B288" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B289" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B290" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B291" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B292" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B293" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B294" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B295" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B296" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B297" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B298" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B299" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B300" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B301" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B302" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B303" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B304" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B305" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B306" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B307" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B308" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B309" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B310" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B311" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B312" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B313" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B314" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B315" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B316" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B317" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B318" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B319" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B320" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B321" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B322" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B323" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B324" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B325" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B326" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B327" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B328" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B329" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B330" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B331" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B332" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B333" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B334" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B335" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B336" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B337" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B338" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B339" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B340" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B341" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B342" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B343" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B344" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B345" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B346" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B347" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B348" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B349" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B350" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B351" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B352" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B353" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B354" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B355" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B356" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B357" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B358" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B359" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B360" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B361" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B362" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B363" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B364" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B365" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B366" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B367" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B368" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B369" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B370" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B371" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B372" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B373" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B374" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B375" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B376" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B377" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B378" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B379" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B380" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B381" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B382" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B383" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B384" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B385" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B386" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B387" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B388" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B389" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B390" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B391" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B392" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B393" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B394" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B395" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B396" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B397" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B398" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B399" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B400" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B401" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B402" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B403" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B404" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B405" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B406" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B407" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B408" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B409" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B410" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B411" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B412" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B413" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B414" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B415" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B416" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B417" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B418" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B419" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B420" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B421" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B422" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B423" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B424" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B425" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B426" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B427" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B428" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B429" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B430" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B431" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B432" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B433" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B434" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B435" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B436" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B437" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B438" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B439" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B440" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B441" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B442" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B443" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B444" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B445" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B446" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B447" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B448" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="B449" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="B450" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="B451" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="B452" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="B453" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="B454" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="B455" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="B456" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="B457" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="B458" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="B459" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="B460" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="B461" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B462" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="B463" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B464" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="B465" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B466" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="B468" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B469" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B470" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B471" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B472" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B473" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B474" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B475" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B476" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B477" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B478" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B479" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B480" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B481" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B482" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B483" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B484" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B485" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B486" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B487" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B488" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B489" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B490" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B491" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B492" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B493" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B494" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B495" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B496" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B497" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B498" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B499" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B500" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B501" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B502" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B503" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B504" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B505" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B506" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B507" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B508" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B509" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B510" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B511" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B512" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B513" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B514" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B515" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B516" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B517" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B518" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B519" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B520" r:id="rId517" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6BED38-2E3D-2046-AE2A-3DE20AF79466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C617BAC-0FDF-D44C-8F5C-0EC018BDB925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,9 +352,6 @@
     <t>Control PS5/PS4</t>
   </si>
   <si>
-    <t>Crash Bandicoot 4: It’s About Time PS4/PS5</t>
-  </si>
-  <si>
     <t>The Quarry PS4/PS5</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3038-3463-4562-a439-353832336165/-/format/webp/53081436.jpg</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 4: Its About Time PS4/PS5</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,1695 +4439,1695 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>1035</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,327 +6135,327 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,1255 +6463,1255 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C617BAC-0FDF-D44C-8F5C-0EC018BDB925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D75E903-0D55-FC4E-9B9C-42E454C62C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,9 +1459,6 @@
     <t>RoadCraft PS5</t>
   </si>
   <si>
-    <t>Assassin’s Creed Shadows PS5</t>
-  </si>
-  <si>
     <t>Kingdom Come: Deliverance II PS5</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>Crash Bandicoot 4: Its About Time PS4/PS5</t>
+  </si>
+  <si>
+    <t>Assassins Creed Shadows PS5</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
+      <selection activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,15 +4439,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,7 +5079,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5119,7 +5119,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>280</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5839,7 +5839,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>296</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>300</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>305</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>307</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>309</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>312</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
         <v>314</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>316</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>317</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>318</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>320</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>321</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>322</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>323</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>324</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>325</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6191,7 +6191,7 @@
         <v>326</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>327</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>328</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>330</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>331</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>332</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>333</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>334</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>335</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>336</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>337</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>338</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>339</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6367,7 +6367,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>351</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>352</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>353</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>354</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>355</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>356</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>357</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>358</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>359</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>360</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>361</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>362</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>363</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>364</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>365</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>366</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>367</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
         <v>368</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>369</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>370</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>371</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>372</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>373</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>374</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>375</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>376</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6607,7 @@
         <v>377</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>378</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>379</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>380</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>381</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>382</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>383</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>384</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>385</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>386</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
         <v>387</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>388</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>389</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>390</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>391</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>392</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>393</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>395</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>396</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>397</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>398</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>400</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>401</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>402</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>403</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>404</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>405</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>406</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>407</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>408</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>409</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>410</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>411</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>412</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>413</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>414</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>415</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>416</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>417</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>418</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>419</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>420</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>421</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +6967,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>423</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>424</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>425</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>426</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>427</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>428</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>429</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>430</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>431</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>432</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +7055,7 @@
         <v>433</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>434</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>435</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>436</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>437</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>438</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>439</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>440</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>441</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>442</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>443</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7143,7 @@
         <v>444</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>445</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>446</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>447</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>448</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>449</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>450</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>451</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>452</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>453</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>454</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>455</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>456</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>457</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>458</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>459</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>460</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>461</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>462</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
         <v>463</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>464</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +7311,7 @@
         <v>465</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>466</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>467</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>468</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>469</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>470</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>471</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>472</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>473</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>474</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>475</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>476</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>477</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,303 +7415,303 @@
         <v>478</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>479</v>
+        <v>1035</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D75E903-0D55-FC4E-9B9C-42E454C62C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59EB2F-C65E-F648-A317-9A896C311B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1945,9 +1945,6 @@
     <t>https://static.tildacdn.com/stor3664-3362-4430-b137-663135396562/16917759.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6536-6635-4234-a264-323164353234/54569868.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3166-3164-4532-b565-303265626566/24729950.jpg</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>Assassins Creed Shadows PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6361-3364-4132-a365-316635383231/-/format/webp/15196416.jpg</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A484" sqref="A484"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4444,7 +4444,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>621</v>
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>641</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,7 +5079,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5119,7 +5119,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>280</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5839,7 +5839,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>296</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>300</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>305</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>307</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>309</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>312</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
         <v>314</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>316</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>317</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>318</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>320</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>321</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>322</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>323</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>324</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>325</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6191,7 +6191,7 @@
         <v>326</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>327</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>328</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>330</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>331</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>332</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>333</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>334</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>335</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>336</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>337</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>338</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>339</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6367,7 +6367,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>351</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>352</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>353</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>354</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>355</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>356</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>357</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>358</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>359</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>360</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>361</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>362</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>363</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>364</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>365</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>366</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>367</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
         <v>368</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>369</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>370</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>371</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>372</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>373</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>374</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>375</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>376</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6607,7 @@
         <v>377</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>378</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>379</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>380</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>381</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>382</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>383</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>384</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>385</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>386</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
         <v>387</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>388</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>389</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>390</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>391</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>392</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>393</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>395</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>396</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>397</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>398</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>400</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>401</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>402</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>403</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>404</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>405</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>406</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>407</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>408</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>409</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>410</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>411</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>412</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>413</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>414</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>415</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>416</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>417</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>418</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>419</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>420</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>421</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +6967,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>423</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>424</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>425</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>426</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>427</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>428</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>429</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>430</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>431</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>432</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +7055,7 @@
         <v>433</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>434</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>435</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>436</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>437</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>438</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>439</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>440</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>441</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>442</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>443</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7143,7 @@
         <v>444</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>445</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>446</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>447</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>448</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>449</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>450</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>451</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>452</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>453</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>454</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>455</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>456</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>457</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>458</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>459</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>460</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>461</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>462</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
         <v>463</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>464</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +7311,7 @@
         <v>465</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>466</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>467</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>468</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>469</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>470</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>471</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>472</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>473</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>474</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>475</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>476</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>477</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,15 +7415,15 @@
         <v>478</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7447,7 +7447,7 @@
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7495,7 +7495,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7519,7 +7519,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +7559,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,15 +7639,15 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7655,7 +7655,7 @@
         <v>506</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7663,15 +7663,15 @@
         <v>507</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>508</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>509</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7695,7 +7695,7 @@
         <v>510</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,15 +7703,15 @@
         <v>511</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -7845,7 +7845,7 @@
     <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
     <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B132" r:id="rId130" display="https://static.tildacdn.com/stor6536-6635-4234-a264-323164353234/54569868.jpg" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
     <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="B134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="B135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59EB2F-C65E-F648-A317-9A896C311B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25F346-E25D-394C-9F7D-EEC55C2DB164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,9 +2179,6 @@
     <t>https://static.tildacdn.com/stor3765-3766-4766-a432-303963373065/26357463.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6566-3166-4666-a335-323865343837/79430193.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor6164-3065-4537-b530-376564633964/83912549.jpg</t>
   </si>
   <si>
@@ -2923,9 +2920,6 @@
     <t>https://static.tildacdn.com/stor6537-6663-4465-b330-353433373330/10475965.png</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor6131-3738-4331-b530-306239643537/63361152.jpg</t>
   </si>
   <si>
@@ -3128,6 +3122,12 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor6361-3364-4132-a365-316635383231/-/format/webp/15196416.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6336-6266-4166-a664-343462636130/-/format/webp/94998662.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3635-6430-4965-b862-663732643262/-/format/webp/59832266.jpg</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="E464" sqref="E464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4444,7 +4444,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>621</v>
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>719</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>280</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5839,7 +5839,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>296</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>300</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>305</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>307</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>309</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>312</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
         <v>314</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>316</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>317</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>318</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>320</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>321</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>322</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>323</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>324</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>325</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6191,7 +6191,7 @@
         <v>326</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>327</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>328</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>329</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>330</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>331</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>332</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>333</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>334</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>335</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>336</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>337</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>338</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>339</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
         <v>340</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>341</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>342</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>343</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>344</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>345</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>346</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>347</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6367,7 +6367,7 @@
         <v>348</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>349</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>350</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>351</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>352</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>353</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>354</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>355</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>356</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>357</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>358</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>359</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>360</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>361</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>362</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>363</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>364</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>365</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>366</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>367</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
         <v>368</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>369</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>370</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>371</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>372</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>373</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>374</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>375</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>376</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6607,7 @@
         <v>377</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>378</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>379</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>380</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>381</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>382</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>383</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>384</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>385</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>386</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
         <v>387</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>388</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>389</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>390</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>391</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>392</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>393</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>395</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>396</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>397</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>398</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>400</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>401</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>402</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>403</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>404</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>405</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>406</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>407</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>408</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>409</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>410</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>411</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>412</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>413</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>414</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>415</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>416</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>417</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>418</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>419</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>420</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>421</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +6967,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>423</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>424</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>425</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>426</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>427</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>428</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>429</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>430</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>431</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>432</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +7055,7 @@
         <v>433</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>434</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>435</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>436</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>437</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>438</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>439</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>440</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>441</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>442</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>443</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7143,7 @@
         <v>444</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>445</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>446</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>447</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>448</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>449</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>450</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>451</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>452</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>453</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>454</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>455</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>456</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>967</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>457</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>458</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>459</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>460</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>461</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>462</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
         <v>463</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>464</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +7311,7 @@
         <v>465</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>466</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>467</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>468</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>469</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>470</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>471</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>472</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>473</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>474</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>475</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>476</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>477</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,15 +7415,15 @@
         <v>478</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>479</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>480</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7447,7 +7447,7 @@
         <v>481</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>482</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>483</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>484</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>485</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>486</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7495,7 +7495,7 @@
         <v>487</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>488</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>489</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7519,7 +7519,7 @@
         <v>490</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>491</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>492</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>493</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>494</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +7559,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>496</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>497</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>498</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>499</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>500</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>501</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>502</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>503</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>504</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,15 +7639,15 @@
         <v>505</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7655,7 +7655,7 @@
         <v>506</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7663,15 +7663,15 @@
         <v>507</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>508</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>509</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7695,7 +7695,7 @@
         <v>510</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,15 +7703,15 @@
         <v>511</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -7924,7 +7924,7 @@
     <hyperlink ref="B208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
     <hyperlink ref="B209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="B210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B211" r:id="rId209" display="https://static.tildacdn.com/stor6566-3166-4666-a335-323865343837/79430193.jpg" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
     <hyperlink ref="B212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
     <hyperlink ref="B213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
     <hyperlink ref="B214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
@@ -8174,7 +8174,7 @@
     <hyperlink ref="B458" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
     <hyperlink ref="B459" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
     <hyperlink ref="B460" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="B461" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B461" r:id="rId459" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
     <hyperlink ref="B462" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
     <hyperlink ref="B463" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
     <hyperlink ref="B464" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB25F346-E25D-394C-9F7D-EEC55C2DB164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EABDA3F-D96E-E34F-ADF5-A9ED48A4DD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,9 +589,6 @@
     <t>GTA 5 PS4/PS5</t>
   </si>
   <si>
-    <t>GTA: The Trilogy - The Definitive Edition PS4\PS5</t>
-  </si>
-  <si>
     <t>Guardians of the Galaxy PS4/PS5</t>
   </si>
   <si>
@@ -1732,9 +1729,6 @@
     <t>https://static.tildacdn.com/stor3335-6537-4964-b337-383161333630/92664336.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3262-6632-4237-b062-353234363932/96467567.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3562-3135-4761-b864-353230376465/69357491.jpg</t>
   </si>
   <si>
@@ -2860,9 +2854,6 @@
     <t>https://static.tildacdn.com/stor6365-3939-4634-a131-323839393761/39798238.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3339-3361-4432-a165-383032316438/58820776.jpg</t>
   </si>
   <si>
@@ -3128,6 +3119,15 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3635-6430-4965-b862-663732643262/-/format/webp/59832266.jpg</t>
+  </si>
+  <si>
+    <t>GTA: The Trilogy - The Definitive Edition PS4PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3161-3335-4365-b166-363733356162/-/format/webp/49887004.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3332-6633-4664-a635-383137363631/-/format/webp/66990223.jpg</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="E464" sqref="E464"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>570</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,15 +4439,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,1055 +5079,1055 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>189</v>
+        <v>1033</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,327 +6135,327 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,1255 +6463,1255 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>946</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -7774,465 +7774,464 @@
     <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B88" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B89" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B90" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId130" display="https://static.tildacdn.com/stor6536-6635-4234-a264-323164353234/54569868.jpg" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId209" display="https://static.tildacdn.com/stor6566-3166-4666-a335-323865343837/79430193.jpg" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId220" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B302" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B303" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B304" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B305" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B306" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B307" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B308" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B309" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B310" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B311" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B312" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B313" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B314" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B315" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B316" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B317" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B318" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B319" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B320" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B321" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B322" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B323" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B324" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B325" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B326" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B327" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B328" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B329" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B330" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B331" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B332" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B333" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B334" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B335" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B336" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B337" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B338" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B339" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B340" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B341" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B342" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B343" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B344" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B345" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B346" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B347" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B348" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B349" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B350" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B351" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B352" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B353" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B354" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B355" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B356" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B357" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B358" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B359" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B360" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B361" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B362" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B363" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B364" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B365" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B366" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B367" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B368" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B369" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B370" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B371" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B372" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B373" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B374" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B375" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B376" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B377" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B378" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B379" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B380" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B381" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B382" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B383" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B384" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B385" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B386" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B387" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B388" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B389" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B390" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B391" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B392" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B393" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B394" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B395" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B396" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B397" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B398" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B399" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B400" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B401" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B402" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B403" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B404" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B405" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B406" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B407" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B408" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B409" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B410" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B411" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B412" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B413" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B414" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B415" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B416" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B417" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B418" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B419" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B420" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B421" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B422" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B423" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B424" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B425" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B426" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B427" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B428" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B429" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B430" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B431" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B432" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B433" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B434" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B435" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B436" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B437" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B438" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B439" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B440" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B441" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B442" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B443" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B444" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B445" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B446" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B447" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="B448" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="B449" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B450" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="B451" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B452" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="B453" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B454" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="B455" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B456" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="B457" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B458" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="B459" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B460" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="B461" r:id="rId459" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B462" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="B463" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B464" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="B465" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B466" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="B468" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="B469" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B470" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="B471" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B472" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="B473" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B474" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="B475" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B476" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="B477" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B478" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="B479" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B480" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="B481" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B482" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="B483" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B484" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="B485" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B486" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="B487" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B488" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="B489" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B490" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="B491" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B492" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="B493" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B494" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="B495" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B496" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="B497" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B498" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="B499" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B500" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="B501" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B502" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="B503" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B504" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="B505" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B506" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="B507" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B508" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="B509" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B510" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="B511" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B512" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="B513" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B514" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="B515" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B516" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="B517" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B518" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="B519" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B520" r:id="rId517" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
+    <hyperlink ref="B62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B126" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B127" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B128" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B129" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B130" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B131" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B132" r:id="rId129" display="https://static.tildacdn.com/stor6536-6635-4234-a264-323164353234/54569868.jpg" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B133" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B134" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B185" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId208" display="https://static.tildacdn.com/stor6566-3166-4666-a335-323865343837/79430193.jpg" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId219" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B242" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B243" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B244" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B245" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B246" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B247" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B248" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B249" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B250" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B274" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B275" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B276" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B277" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B278" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B279" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B280" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B281" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B282" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B283" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B284" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B285" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B286" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B287" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B288" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B289" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B290" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B291" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B292" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B293" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B294" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B295" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B296" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B297" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B298" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B299" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B300" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B301" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B302" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B303" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B304" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B305" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B306" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B307" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B308" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B309" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B310" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B311" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B312" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B313" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B314" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B315" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B316" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B317" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B318" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B319" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B320" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B321" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B322" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B323" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B324" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B325" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B326" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B327" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B328" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B329" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B330" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B331" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B332" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B333" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B334" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B335" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B336" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B337" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B338" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B339" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B340" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B341" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B342" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B343" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B344" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B345" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B346" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B347" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B348" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B349" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B350" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B351" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B352" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B353" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B354" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B355" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B356" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B357" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B358" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B359" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B360" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B361" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B362" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B363" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B364" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B365" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B366" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B367" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B368" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B369" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B370" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B371" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B372" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B373" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B374" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B375" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B376" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B377" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B378" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B379" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B380" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B381" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B382" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B383" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B384" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B385" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B386" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B387" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B388" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B389" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B390" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B391" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B392" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B393" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B394" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B395" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B396" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B397" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B398" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B399" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B400" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B401" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B402" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B403" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B404" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B405" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B406" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B407" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B408" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B409" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B410" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B411" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B412" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B413" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B414" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B415" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B416" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B417" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B418" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B419" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B420" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B421" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B422" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B423" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B424" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B425" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B426" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B427" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B428" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B429" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B430" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B431" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B432" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B433" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B434" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B435" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B436" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B437" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B438" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B439" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B440" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B441" r:id="rId438" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B442" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B443" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B444" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B445" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B446" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B447" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B448" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="B449" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="B450" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="B451" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="B452" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="B453" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="B454" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="B455" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="B456" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="B457" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="B458" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="B459" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="B460" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="B461" r:id="rId458" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B462" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="B463" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B464" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="B465" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B466" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="B468" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B469" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B470" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B471" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B472" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B473" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B474" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B475" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B476" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B477" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B478" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B479" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B480" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B481" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B482" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B483" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B484" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B485" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B486" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B487" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B488" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B489" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B490" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B491" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B492" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B493" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B494" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B495" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B496" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B497" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B498" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B499" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B500" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B501" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B502" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B503" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B504" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B505" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B506" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B507" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B508" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B509" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B510" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B511" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B512" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B513" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B514" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B515" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B516" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B517" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B518" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B519" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B520" r:id="rId516" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EABDA3F-D96E-E34F-ADF5-A9ED48A4DD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA7C2B-6437-854D-973E-A67CE411BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1729,9 +1729,6 @@
     <t>https://static.tildacdn.com/stor3335-6537-4964-b337-383161333630/92664336.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3562-3135-4761-b864-353230376465/69357491.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3931-3630-4931-a335-626463626635/76779405.jpg</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3332-6633-4664-a635-383137363631/-/format/webp/66990223.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3262-6632-4237-b062-353234363932/-/format/webp/96467567.jpg</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>569</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,15 +4439,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,15 +5079,15 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
         <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -5119,7 +5119,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
         <v>193</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>198</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>200</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>201</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>202</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>203</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>204</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>205</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>206</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>207</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>208</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>209</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>210</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>211</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>212</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>213</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>214</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>215</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>216</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>217</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>218</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>219</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>220</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>221</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>222</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>223</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>224</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>225</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>226</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>227</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>228</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>229</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>230</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>231</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>232</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>233</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>234</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>235</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>236</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>237</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>238</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>239</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>240</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>241</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>242</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>243</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>244</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>245</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>246</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>247</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>248</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>249</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>250</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>251</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>252</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>253</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>254</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>255</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>256</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>257</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>258</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>259</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>260</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>261</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>262</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>263</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>264</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>265</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>266</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>267</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>268</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>269</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,7 +5743,7 @@
         <v>270</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -5751,7 +5751,7 @@
         <v>271</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5759,7 +5759,7 @@
         <v>272</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>273</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5775,7 +5775,7 @@
         <v>274</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>275</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>276</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>277</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5807,7 +5807,7 @@
         <v>278</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5815,7 +5815,7 @@
         <v>279</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>280</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5831,7 +5831,7 @@
         <v>281</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5839,7 +5839,7 @@
         <v>282</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
         <v>283</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>284</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5863,7 +5863,7 @@
         <v>285</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5871,7 +5871,7 @@
         <v>286</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5879,7 +5879,7 @@
         <v>287</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5887,7 +5887,7 @@
         <v>288</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5895,7 +5895,7 @@
         <v>289</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5903,7 +5903,7 @@
         <v>290</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5911,7 +5911,7 @@
         <v>291</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>292</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5927,7 +5927,7 @@
         <v>293</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>294</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>295</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>296</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>297</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5967,7 +5967,7 @@
         <v>298</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
         <v>299</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>300</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -5991,7 +5991,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -5999,7 +5999,7 @@
         <v>302</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6007,7 +6007,7 @@
         <v>303</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6015,7 +6015,7 @@
         <v>304</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6023,7 +6023,7 @@
         <v>305</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>306</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>307</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
         <v>308</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6055,7 +6055,7 @@
         <v>309</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6063,7 +6063,7 @@
         <v>310</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6071,7 +6071,7 @@
         <v>311</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>312</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6087,7 +6087,7 @@
         <v>313</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
         <v>314</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>315</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6111,7 +6111,7 @@
         <v>316</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>317</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>318</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>319</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6151,7 +6151,7 @@
         <v>320</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>321</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
         <v>322</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6175,7 +6175,7 @@
         <v>323</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6183,7 +6183,7 @@
         <v>324</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6191,7 +6191,7 @@
         <v>325</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6199,7 +6199,7 @@
         <v>326</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>327</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>328</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6223,7 +6223,7 @@
         <v>329</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6231,7 +6231,7 @@
         <v>330</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6239,7 +6239,7 @@
         <v>331</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6247,7 +6247,7 @@
         <v>332</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>333</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6263,7 +6263,7 @@
         <v>334</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6271,7 +6271,7 @@
         <v>335</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>336</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6287,7 +6287,7 @@
         <v>337</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>338</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
         <v>339</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6311,7 +6311,7 @@
         <v>340</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6319,7 +6319,7 @@
         <v>341</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6327,7 +6327,7 @@
         <v>342</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6335,7 +6335,7 @@
         <v>343</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6343,7 +6343,7 @@
         <v>344</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>345</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6359,7 +6359,7 @@
         <v>346</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6367,7 +6367,7 @@
         <v>347</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6375,7 +6375,7 @@
         <v>348</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>349</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>350</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>351</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>352</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,7 +6415,7 @@
         <v>353</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6423,7 +6423,7 @@
         <v>354</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6431,7 +6431,7 @@
         <v>355</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6439,7 +6439,7 @@
         <v>356</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6447,7 +6447,7 @@
         <v>357</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6455,7 +6455,7 @@
         <v>358</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>359</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6479,7 +6479,7 @@
         <v>360</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>361</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6495,7 +6495,7 @@
         <v>362</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6503,7 +6503,7 @@
         <v>363</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
         <v>364</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6519,7 +6519,7 @@
         <v>365</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6527,7 +6527,7 @@
         <v>366</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6535,7 +6535,7 @@
         <v>367</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
         <v>368</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6551,7 +6551,7 @@
         <v>369</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>370</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6567,7 +6567,7 @@
         <v>371</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6575,7 +6575,7 @@
         <v>372</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
         <v>373</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>374</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6599,7 +6599,7 @@
         <v>375</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6607,7 +6607,7 @@
         <v>376</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6615,7 +6615,7 @@
         <v>377</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6623,7 +6623,7 @@
         <v>378</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>379</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6639,7 +6639,7 @@
         <v>380</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>381</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6655,7 +6655,7 @@
         <v>382</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6663,7 +6663,7 @@
         <v>383</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>384</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6679,7 +6679,7 @@
         <v>385</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6687,7 +6687,7 @@
         <v>386</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6695,7 +6695,7 @@
         <v>387</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>388</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>389</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>390</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6727,7 +6727,7 @@
         <v>391</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>392</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6743,7 +6743,7 @@
         <v>393</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6751,7 +6751,7 @@
         <v>394</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6759,7 +6759,7 @@
         <v>395</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
         <v>396</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>397</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6783,7 +6783,7 @@
         <v>398</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6791,7 +6791,7 @@
         <v>399</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6799,7 +6799,7 @@
         <v>400</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6807,7 +6807,7 @@
         <v>401</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6815,7 +6815,7 @@
         <v>402</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>403</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6831,7 +6831,7 @@
         <v>404</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6839,7 +6839,7 @@
         <v>405</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>406</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6855,7 +6855,7 @@
         <v>407</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>408</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6871,7 +6871,7 @@
         <v>409</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6879,7 +6879,7 @@
         <v>410</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6887,7 +6887,7 @@
         <v>411</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6895,7 +6895,7 @@
         <v>412</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6903,7 +6903,7 @@
         <v>413</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>414</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>415</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6927,7 +6927,7 @@
         <v>416</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6935,7 +6935,7 @@
         <v>417</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>418</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6951,7 +6951,7 @@
         <v>419</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6959,7 +6959,7 @@
         <v>420</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6967,7 +6967,7 @@
         <v>421</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6975,7 +6975,7 @@
         <v>422</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>423</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -6991,7 +6991,7 @@
         <v>424</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>425</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7007,7 +7007,7 @@
         <v>426</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>427</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>428</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>429</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7039,7 +7039,7 @@
         <v>430</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>431</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7055,7 +7055,7 @@
         <v>432</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7063,7 +7063,7 @@
         <v>433</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7071,7 +7071,7 @@
         <v>434</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7079,7 +7079,7 @@
         <v>435</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>436</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7095,7 +7095,7 @@
         <v>437</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7103,7 +7103,7 @@
         <v>438</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7111,7 +7111,7 @@
         <v>439</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7119,7 +7119,7 @@
         <v>440</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7127,7 +7127,7 @@
         <v>441</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
         <v>442</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7143,7 +7143,7 @@
         <v>443</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7151,7 +7151,7 @@
         <v>444</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7159,7 +7159,7 @@
         <v>445</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>446</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>447</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7183,7 +7183,7 @@
         <v>448</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7191,7 +7191,7 @@
         <v>449</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7199,7 +7199,7 @@
         <v>450</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,7 +7207,7 @@
         <v>451</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>452</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,7 +7223,7 @@
         <v>453</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7231,7 +7231,7 @@
         <v>454</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7239,7 +7239,7 @@
         <v>455</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7247,7 +7247,7 @@
         <v>456</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7255,7 +7255,7 @@
         <v>457</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>458</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7271,7 +7271,7 @@
         <v>459</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>460</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7287,7 +7287,7 @@
         <v>461</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
         <v>462</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7303,7 +7303,7 @@
         <v>463</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7311,7 +7311,7 @@
         <v>464</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>465</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>466</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>467</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7343,7 +7343,7 @@
         <v>468</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>469</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7359,7 +7359,7 @@
         <v>470</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>471</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7375,7 +7375,7 @@
         <v>472</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>473</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7391,7 +7391,7 @@
         <v>474</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7399,7 +7399,7 @@
         <v>475</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7407,7 +7407,7 @@
         <v>476</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7415,15 +7415,15 @@
         <v>477</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>478</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>479</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7447,7 +7447,7 @@
         <v>480</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>481</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7463,7 +7463,7 @@
         <v>482</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>483</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7479,7 +7479,7 @@
         <v>484</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7487,7 +7487,7 @@
         <v>485</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7495,7 +7495,7 @@
         <v>486</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
         <v>487</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7511,7 +7511,7 @@
         <v>488</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7519,7 +7519,7 @@
         <v>489</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>490</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7535,7 +7535,7 @@
         <v>491</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7543,7 +7543,7 @@
         <v>492</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
         <v>493</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7559,7 +7559,7 @@
         <v>494</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7567,7 +7567,7 @@
         <v>495</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>496</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>497</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>498</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7599,7 +7599,7 @@
         <v>499</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7607,7 +7607,7 @@
         <v>500</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>501</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>502</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7631,7 +7631,7 @@
         <v>503</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7639,15 +7639,15 @@
         <v>504</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7655,7 +7655,7 @@
         <v>505</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7663,15 +7663,15 @@
         <v>506</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>507</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
         <v>508</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7695,7 +7695,7 @@
         <v>509</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7703,15 +7703,15 @@
         <v>510</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -7774,7 +7774,7 @@
     <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B62" r:id="rId59" display="https://static.tildacdn.com/stor3562-3135-4761-b864-353230376465/69357491.jpg" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="B63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="B64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="B65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA7C2B-6437-854D-973E-A67CE411BA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63E1B4-4B1D-ED4D-B3C2-326C00F018A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,9 +598,6 @@
     <t>Heavenly bodies PS4/PS5</t>
   </si>
   <si>
-    <t>Heavy Rain &amp;amp; Beyond: Two Souls PS4/PS5</t>
-  </si>
-  <si>
     <t>Heavy Rain PS4/PS5</t>
   </si>
   <si>
@@ -3128,6 +3125,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3262-6632-4237-b062-353234363932/-/format/webp/96467567.jpg</t>
+  </si>
+  <si>
+    <t>Heavy Rain &amp; Beyond: Two Souls PS4/PS5</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,15 +4439,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,15 +5079,15 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,1023 +5111,1023 @@
         <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>1035</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,327 +6135,327 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,1255 +6463,1255 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63E1B4-4B1D-ED4D-B3C2-326C00F018A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB4699-7DAE-D54F-BE32-591ABB0950F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,9 +832,6 @@
     <t>NBA24 PS4/PS5</t>
   </si>
   <si>
-    <t>Need For Speed (2015) PS4/PS5</t>
-  </si>
-  <si>
     <t>Need for Speed Heat PS4/PS5</t>
   </si>
   <si>
@@ -1894,9 +1891,6 @@
     <t>https://static.tildacdn.com/stor3766-6130-4036-b563-313839613136/22547013.png</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6533-3937-4936-a230-316131623738/94865285.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3164-6434-4661-a636-383432313566/95464044.jpg</t>
   </si>
   <si>
@@ -2089,9 +2083,6 @@
     <t>https://static.tildacdn.com/stor3034-3864-4830-b038-623538646232/54266530.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6665-6535-4133-b935-356234353466/60174599.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3437-3336-4033-a263-613165376339/55249335.jpg</t>
   </si>
   <si>
@@ -3128,6 +3119,15 @@
   </si>
   <si>
     <t>Heavy Rain &amp; Beyond: Two Souls PS4/PS5</t>
+  </si>
+  <si>
+    <t>Need For Speed 2015 PS4/PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3364-3163-4735-a433-336539356237/-/format/webp/26720380.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3865-6337-4864-b537-633431653031/-/format/webp/23569068.jpg</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,15 +4439,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,7 +4503,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>624</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4511,7 +4511,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4519,7 +4519,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4527,7 +4527,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +4567,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +4607,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +4615,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4623,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4655,7 +4655,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4679,7 +4679,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4711,7 +4711,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4719,7 +4719,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4727,7 +4727,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4751,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4775,7 +4775,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4783,7 +4783,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4807,7 +4807,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4847,7 +4847,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4879,7 +4879,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4895,7 +4895,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4903,7 +4903,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4911,7 +4911,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4919,7 +4919,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4935,7 +4935,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4951,7 +4951,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4967,7 +4967,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -4991,7 +4991,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4999,7 +4999,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5007,7 +5007,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5015,7 +5015,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5031,7 +5031,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>689</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5047,7 +5047,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5055,7 +5055,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5071,7 +5071,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5079,15 +5079,15 @@
         <v>188</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5095,7 +5095,7 @@
         <v>189</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>190</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5111,15 +5111,15 @@
         <v>191</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5127,7 +5127,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5135,7 +5135,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5143,7 +5143,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5159,7 +5159,7 @@
         <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5175,7 +5175,7 @@
         <v>198</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5183,7 +5183,7 @@
         <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>200</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>201</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5207,7 +5207,7 @@
         <v>202</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,7 +5215,7 @@
         <v>203</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>204</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5231,7 +5231,7 @@
         <v>205</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>206</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5247,7 +5247,7 @@
         <v>207</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
         <v>208</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
         <v>209</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5271,7 +5271,7 @@
         <v>210</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5279,7 +5279,7 @@
         <v>211</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5287,7 +5287,7 @@
         <v>212</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
         <v>213</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5303,7 +5303,7 @@
         <v>214</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5311,7 +5311,7 @@
         <v>215</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5319,7 +5319,7 @@
         <v>216</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>217</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5335,7 +5335,7 @@
         <v>218</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>219</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>220</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5359,7 +5359,7 @@
         <v>221</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5367,7 +5367,7 @@
         <v>222</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5375,7 +5375,7 @@
         <v>223</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5383,7 +5383,7 @@
         <v>224</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>225</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5399,7 +5399,7 @@
         <v>226</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5407,7 +5407,7 @@
         <v>227</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>228</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
         <v>229</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5431,7 +5431,7 @@
         <v>230</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>231</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5447,7 +5447,7 @@
         <v>232</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5455,7 +5455,7 @@
         <v>233</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5463,7 +5463,7 @@
         <v>234</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5471,7 +5471,7 @@
         <v>235</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5479,7 +5479,7 @@
         <v>236</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5487,7 +5487,7 @@
         <v>237</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>238</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>239</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5511,7 +5511,7 @@
         <v>240</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5519,7 +5519,7 @@
         <v>241</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,7 +5527,7 @@
         <v>242</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5535,7 +5535,7 @@
         <v>243</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5543,7 +5543,7 @@
         <v>244</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5551,7 +5551,7 @@
         <v>245</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5559,7 +5559,7 @@
         <v>246</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>247</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5575,7 +5575,7 @@
         <v>248</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5583,7 +5583,7 @@
         <v>249</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>250</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5599,7 +5599,7 @@
         <v>251</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5607,7 +5607,7 @@
         <v>252</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5615,7 +5615,7 @@
         <v>253</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>254</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5631,7 +5631,7 @@
         <v>255</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5639,7 +5639,7 @@
         <v>256</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>257</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5655,7 +5655,7 @@
         <v>258</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
         <v>259</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5671,7 +5671,7 @@
         <v>260</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>261</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>262</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5695,7 +5695,7 @@
         <v>263</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5703,7 +5703,7 @@
         <v>264</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5711,7 +5711,7 @@
         <v>265</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5719,7 +5719,7 @@
         <v>266</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5727,7 +5727,7 @@
         <v>267</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5735,7 +5735,7 @@
         <v>268</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5743,391 +5743,391 @@
         <v>269</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>270</v>
+        <v>1033</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,327 +6135,327 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,1255 +6463,1255 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -7831,407 +7831,405 @@
     <hyperlink ref="B116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="B117" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="B118" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B119" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B120" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B121" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B122" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B123" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B124" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B125" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B126" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B127" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B128" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B129" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B130" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B131" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId129" display="https://static.tildacdn.com/stor6536-6635-4234-a264-323164353234/54569868.jpg" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId208" display="https://static.tildacdn.com/stor6566-3166-4666-a335-323865343837/79430193.jpg" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId219" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B302" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B303" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B304" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B305" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B306" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B307" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B308" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B309" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B310" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B311" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B312" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B313" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B314" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B315" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B316" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B317" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B318" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B319" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B320" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B321" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B322" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B323" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B324" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B325" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B326" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B327" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B328" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B329" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B330" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B331" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B332" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B333" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B334" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B335" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B336" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B337" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B338" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B339" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B340" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B341" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B342" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B343" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B344" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B345" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B346" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B347" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B348" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B349" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B350" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B351" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B352" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B353" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B354" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B355" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B356" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B357" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B358" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B359" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B360" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B361" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B362" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B363" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B364" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B365" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B366" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B367" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B368" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B369" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B370" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B371" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B372" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B373" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B374" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B375" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B376" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B377" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B378" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B379" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B380" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B381" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B382" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B383" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B384" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B385" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B386" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B387" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B388" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B389" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B390" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B391" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B392" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B393" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B394" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B395" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B396" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B397" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B398" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B399" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B400" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B401" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B402" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B403" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B404" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B405" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B406" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B407" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B408" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B409" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B410" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B411" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B412" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B413" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B414" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B415" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B416" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B417" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B418" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B419" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B420" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B421" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B422" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B423" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B424" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B425" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B426" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B427" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B428" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B429" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B430" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B431" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B432" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B433" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B434" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B435" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B436" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B437" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B438" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B439" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B440" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B441" r:id="rId438" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B442" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B443" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B444" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B445" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B446" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B447" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="B448" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="B449" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B450" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="B451" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B452" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="B453" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B454" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="B455" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B456" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="B457" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B458" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="B459" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B460" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="B461" r:id="rId458" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B462" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="B463" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B464" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="B465" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B466" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="B468" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="B469" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B470" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="B471" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B472" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="B473" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B474" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="B475" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B476" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="B477" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B478" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="B479" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B480" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="B481" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B482" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="B483" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B484" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="B485" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B486" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="B487" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B488" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="B489" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B490" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="B491" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B492" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="B493" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B494" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="B495" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B496" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="B497" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B498" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="B499" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B500" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="B501" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B502" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="B503" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B504" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="B505" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B506" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="B507" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B508" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="B509" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B510" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="B511" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B512" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="B513" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B514" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="B515" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B516" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="B517" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B518" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="B519" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B520" r:id="rId516" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
+    <hyperlink ref="B120" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B126" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B127" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B128" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B129" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B130" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B131" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B132" r:id="rId128" display="https://static.tildacdn.com/stor6536-6635-4234-a264-323164353234/54569868.jpg" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B133" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B134" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B186" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId206" display="https://static.tildacdn.com/stor6566-3166-4666-a335-323865343837/79430193.jpg" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId217" display="https://static.tildacdn.com/stor3931-3262-4761-b963-376465646161/64567134.jpg" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B242" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B243" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B244" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B245" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B246" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B247" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B248" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B249" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B250" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B274" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B275" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B276" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B277" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B278" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B279" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B280" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B281" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B282" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B283" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B284" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B285" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B286" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B287" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B288" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B289" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B290" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B291" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B292" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B293" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B294" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B295" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B296" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B297" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B298" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B299" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B300" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B301" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B302" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B303" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B304" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B305" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B306" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B307" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B308" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B309" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B310" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B311" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B312" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B313" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B314" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B315" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B316" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B317" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B318" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B319" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B320" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B321" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B322" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B323" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B324" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B325" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B326" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B327" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B328" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B329" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B330" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B331" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B332" r:id="rId327" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B333" r:id="rId328" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B334" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B335" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B336" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B337" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B338" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B339" r:id="rId334" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B340" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B341" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B342" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B343" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B344" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B345" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B346" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B347" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B348" r:id="rId343" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B349" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B350" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B351" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B352" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B353" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B354" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B355" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B356" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B357" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B358" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B359" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B360" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B361" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B362" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B363" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B364" r:id="rId359" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B365" r:id="rId360" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B366" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B367" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B368" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B369" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B370" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B371" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B372" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B373" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B374" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B375" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B376" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B377" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B378" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B379" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B380" r:id="rId375" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B381" r:id="rId376" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B382" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B383" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B384" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B385" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B386" r:id="rId381" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B387" r:id="rId382" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B388" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B389" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B390" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B391" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B392" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B393" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B394" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B395" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B396" r:id="rId391" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B397" r:id="rId392" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B398" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B399" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B400" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B401" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B402" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B403" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B404" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B405" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B406" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B407" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B408" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B409" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B410" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B411" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B412" r:id="rId407" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B413" r:id="rId408" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B414" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B415" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B416" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B417" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B418" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B419" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B420" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B421" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B422" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B423" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B424" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B425" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B426" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B427" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B428" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B429" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B430" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B431" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B432" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B433" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B434" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B435" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B436" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B437" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B438" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B439" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B440" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B441" r:id="rId436" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B442" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B443" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B444" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B445" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B446" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B447" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B448" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="B449" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="B450" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="B451" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="B452" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="B453" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="B454" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="B455" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="B456" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="B457" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="B458" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="B459" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="B460" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="B461" r:id="rId456" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B462" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="B463" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B464" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="B465" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B466" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="B468" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B469" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B470" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B471" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B472" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B473" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B474" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B475" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B476" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B477" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B478" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B479" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B480" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B481" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B482" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B483" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B484" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B485" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B486" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B487" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B488" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B489" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B490" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B491" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B492" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B493" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B494" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B495" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B496" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B497" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B498" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B499" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B500" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B501" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B502" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B503" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B504" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B505" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B506" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B507" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B508" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B509" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B510" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B511" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B512" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B513" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B514" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B515" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B516" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B517" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B518" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B519" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B520" r:id="rId514" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB4699-7DAE-D54F-BE32-591ABB0950F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC184C-DB97-3748-BD06-0BD13A1A5A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,9 +373,6 @@
     <t>Cult of the lamb PS4/PS5</t>
   </si>
   <si>
-    <t>Cuphead &amp;amp; The Delicious Last Course PS4/PS5</t>
-  </si>
-  <si>
     <t>Cyberpunk 2077: Phantom Liberty PS5</t>
   </si>
   <si>
@@ -2695,9 +2692,6 @@
     <t>https://static.tildacdn.com/stor6261-3733-4438-b934-303866333734/56897717.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3434-3462-4137-b064-313735386566/28446758.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3836-3738-4564-b339-313739616432/79798627.jpg</t>
   </si>
   <si>
@@ -3128,6 +3122,12 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3865-6337-4864-b537-633431653031/-/format/webp/23569068.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3534-3331-4466-b037-626365323631/-/format/webp/92174606.jpg</t>
+  </si>
+  <si>
+    <t>Cuphead &amp; The Delicious Last Course PS4/PS5</t>
   </si>
 </sst>
 </file>
@@ -3544,8 +3544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3556,10 +3556,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +3591,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +3607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +3615,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3663,7 +3663,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +3775,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3783,7 +3783,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +3791,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +3799,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3839,7 +3839,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +3855,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3895,7 +3895,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3903,7 +3903,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +3999,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4015,7 +4015,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4039,7 +4039,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4047,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4055,7 +4055,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4063,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,7 +4079,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4103,7 +4103,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4119,7 +4119,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4135,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4151,7 +4151,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4159,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4167,7 +4167,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4183,7 +4183,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4223,7 +4223,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4231,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4239,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4247,7 +4247,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4263,7 +4263,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4271,7 +4271,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4295,7 +4295,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4303,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4319,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4343,7 +4343,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4351,7 +4351,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4359,7 +4359,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4383,7 +4383,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4391,7 +4391,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4399,7 +4399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4407,7 +4407,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4439,15 +4439,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4471,7 +4471,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4487,7 +4487,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4495,7 +4495,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4503,1631 +4503,1631 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>1035</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6135,327 +6135,327 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6463,1255 +6463,1255 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>891</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -8103,133 +8103,132 @@
     <hyperlink ref="B390" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
     <hyperlink ref="B391" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
     <hyperlink ref="B392" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B393" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B394" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B395" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B396" r:id="rId391" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B397" r:id="rId392" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B398" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B399" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B400" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B401" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B402" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B403" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B404" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B405" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B406" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B407" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B408" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B409" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B410" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B411" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B412" r:id="rId407" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B413" r:id="rId408" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B414" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B415" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B416" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B417" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B418" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B419" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B420" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B421" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B422" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B423" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B424" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B425" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B426" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B427" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B428" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B429" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B430" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B431" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B432" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B433" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B434" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B435" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B436" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B437" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B438" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B439" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B440" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B441" r:id="rId436" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B442" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B443" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B444" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B445" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B446" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B447" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="B448" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="B449" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B450" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="B451" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B452" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="B453" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B454" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="B455" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B456" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="B457" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B458" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="B459" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B460" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="B461" r:id="rId456" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B462" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="B463" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B464" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="B465" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B466" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="B468" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="B469" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B470" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="B471" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B472" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="B473" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B474" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="B475" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B476" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="B477" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B478" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="B479" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B480" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="B481" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B482" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="B483" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B484" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="B485" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B486" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="B487" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B488" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="B489" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B490" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="B491" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B492" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="B493" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B494" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="B495" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B496" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="B497" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B498" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="B499" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B500" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="B501" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B502" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="B503" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B504" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="B505" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B506" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="B507" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B508" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="B509" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B510" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="B511" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B512" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="B513" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B514" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="B515" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B516" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="B517" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B518" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="B519" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B520" r:id="rId514" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
+    <hyperlink ref="B394" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B395" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B396" r:id="rId390" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B397" r:id="rId391" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B398" r:id="rId392" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B399" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B400" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B401" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B402" r:id="rId396" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B403" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B404" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B405" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B406" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B407" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B408" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B409" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B410" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B411" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B412" r:id="rId406" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B413" r:id="rId407" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B414" r:id="rId408" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B415" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B416" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B417" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B418" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B419" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B420" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B421" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B422" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B423" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B424" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B425" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B426" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B427" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B428" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B429" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B430" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B431" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B432" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B433" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B434" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B435" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B436" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B437" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B438" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B439" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B440" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B441" r:id="rId435" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B442" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B443" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B444" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B445" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B446" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B447" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B448" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="B449" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="B450" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="B451" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="B452" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="B453" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="B454" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="B455" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="B456" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="B457" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="B458" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="B459" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="B460" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="B461" r:id="rId455" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B462" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="B463" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B464" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="B465" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B466" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="B468" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B469" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B470" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B471" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B472" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B473" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B474" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B475" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B476" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B477" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B478" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B479" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B480" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B481" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B482" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B483" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B484" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B485" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B486" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B487" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B488" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B489" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B490" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B491" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B492" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B493" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B494" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B495" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B496" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B497" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B498" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B499" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B500" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B501" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B502" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B503" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B504" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B505" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B506" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B507" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B508" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B509" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B510" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B511" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B512" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B513" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B514" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B515" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B516" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B517" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B518" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B519" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B520" r:id="rId513" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC184C-DB97-3748-BD06-0BD13A1A5A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE4357-AB87-8F4E-B2D0-5064F4B27BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1037">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -3128,6 +3128,9 @@
   </si>
   <si>
     <t>Cuphead &amp; The Delicious Last Course PS4/PS5</t>
+  </si>
+  <si>
+    <t>SILENT HILL f PS5 НАВСЕГДА</t>
   </si>
 </sst>
 </file>
@@ -3542,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7712,6 +7715,14 @@
       </c>
       <c r="B520" s="2" t="s">
         <v>1005</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -8229,6 +8240,7 @@
     <hyperlink ref="B518" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
     <hyperlink ref="B519" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
     <hyperlink ref="B520" r:id="rId513" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
+    <hyperlink ref="B521" r:id="rId514" xr:uid="{6259FDDF-64FB-1643-A644-A214EC519E88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE4357-AB87-8F4E-B2D0-5064F4B27BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31FB0C-B3EE-2646-9FB0-F49C42296CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1039">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -3131,6 +3131,12 @@
   </si>
   <si>
     <t>SILENT HILL f PS5 НАВСЕГДА</t>
+  </si>
+  <si>
+    <t>Battlefield 6 Standard Edition PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6231-3163-4932-b537-633764313765/-/format/webp/12550447.jpg</t>
   </si>
 </sst>
 </file>
@@ -3545,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B521"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524"/>
+      <selection activeCell="E517" sqref="E517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7723,6 +7729,14 @@
       </c>
       <c r="B521" s="2" t="s">
         <v>1003</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F31FB0C-B3EE-2646-9FB0-F49C42296CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF7F4E-72C0-1A42-9084-1037EDECBAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1041">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -3137,6 +3137,12 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor6231-3163-4932-b537-633764313765/-/format/webp/12550447.jpg</t>
+  </si>
+  <si>
+    <t>Little Nightmares III PS4/PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6632-3365-4733-b063-643630363161/-/format/webp/45609612.jpg</t>
   </si>
 </sst>
 </file>
@@ -3551,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="E517" sqref="E517"/>
+      <selection activeCell="B503" sqref="B503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7737,6 +7743,14 @@
       </c>
       <c r="B522" t="s">
         <v>1038</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF7F4E-72C0-1A42-9084-1037EDECBAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8541D-9398-964D-9D6A-20CBE37B0972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2083,9 +2083,6 @@
     <t>https://static.tildacdn.com/stor3437-3336-4033-a263-613165376339/55249335.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6132-3834-4436-b731-643665643965/22019043.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3738-3632-4932-a363-373765383636/31820970.jpg</t>
   </si>
   <si>
@@ -3143,6 +3140,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor6632-3365-4733-b063-643630363161/-/format/webp/45609612.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3437-3635-4966-a166-646538653461/-/format/webp/60783726.jpg</t>
   </si>
 </sst>
 </file>
@@ -3559,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="B503" sqref="B503"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3571,10 +3571,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3942,7 +3942,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4062,7 +4062,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4459,7 +4459,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>615</v>
@@ -4518,12 +4518,12 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>622</v>
@@ -4622,7 +4622,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -5046,7 +5046,7 @@
         <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5062,7 +5062,7 @@
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>687</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5070,7 +5070,7 @@
         <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5086,7 +5086,7 @@
         <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5094,15 +5094,15 @@
         <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5110,7 +5110,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5126,15 +5126,15 @@
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5142,7 +5142,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5158,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5166,7 +5166,7 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5174,7 +5174,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5190,7 +5190,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5198,7 +5198,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5206,7 +5206,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5214,7 +5214,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5222,7 +5222,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5238,7 +5238,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5246,7 +5246,7 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5254,7 +5254,7 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,7 +5262,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5270,7 +5270,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5278,7 +5278,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5294,7 +5294,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5302,7 +5302,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5310,7 +5310,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5318,7 +5318,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5334,7 +5334,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5342,7 +5342,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5350,7 +5350,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5358,7 +5358,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5366,7 +5366,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5374,7 +5374,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5398,7 +5398,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5406,7 +5406,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5414,7 +5414,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5422,7 +5422,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5430,7 +5430,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5438,7 +5438,7 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5446,7 +5446,7 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5454,7 +5454,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5470,7 +5470,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5478,7 +5478,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5494,7 +5494,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5502,7 +5502,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5510,7 +5510,7 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5518,7 +5518,7 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5526,7 +5526,7 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5534,7 +5534,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,7 +5542,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5550,7 +5550,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5574,7 +5574,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5582,7 +5582,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5598,7 +5598,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5606,7 +5606,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5614,7 +5614,7 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5622,7 +5622,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5630,7 +5630,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5638,7 +5638,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5646,7 +5646,7 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5654,7 +5654,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5662,7 +5662,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5670,7 +5670,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5678,7 +5678,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5694,7 +5694,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5702,7 +5702,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5710,7 +5710,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5718,7 +5718,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5726,7 +5726,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5734,7 +5734,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5742,7 +5742,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5750,7 +5750,7 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5758,15 +5758,15 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5774,7 +5774,7 @@
         <v>269</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5782,7 +5782,7 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5790,7 +5790,7 @@
         <v>271</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5798,7 +5798,7 @@
         <v>272</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5806,7 +5806,7 @@
         <v>273</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5814,7 +5814,7 @@
         <v>274</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5822,7 +5822,7 @@
         <v>275</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5830,7 +5830,7 @@
         <v>276</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5838,7 +5838,7 @@
         <v>277</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5846,7 +5846,7 @@
         <v>278</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5854,7 +5854,7 @@
         <v>279</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5862,7 +5862,7 @@
         <v>280</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
         <v>281</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5878,7 +5878,7 @@
         <v>282</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5886,7 +5886,7 @@
         <v>283</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5894,7 +5894,7 @@
         <v>284</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5902,7 +5902,7 @@
         <v>285</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5910,7 +5910,7 @@
         <v>286</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
         <v>287</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5926,7 +5926,7 @@
         <v>288</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5934,7 +5934,7 @@
         <v>289</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5942,7 +5942,7 @@
         <v>290</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5950,7 +5950,7 @@
         <v>291</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>292</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5966,7 +5966,7 @@
         <v>293</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5974,7 +5974,7 @@
         <v>294</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>295</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5990,7 +5990,7 @@
         <v>296</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
         <v>297</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
         <v>298</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -6014,7 +6014,7 @@
         <v>299</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6022,7 +6022,7 @@
         <v>300</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6030,7 +6030,7 @@
         <v>301</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6038,7 +6038,7 @@
         <v>302</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6046,7 +6046,7 @@
         <v>303</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6054,7 +6054,7 @@
         <v>304</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6062,7 +6062,7 @@
         <v>305</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6070,7 +6070,7 @@
         <v>306</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
         <v>307</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
         <v>308</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6094,7 +6094,7 @@
         <v>309</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6102,7 +6102,7 @@
         <v>310</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6110,7 +6110,7 @@
         <v>311</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6118,7 +6118,7 @@
         <v>312</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
         <v>313</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6134,7 +6134,7 @@
         <v>314</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6142,7 +6142,7 @@
         <v>315</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>316</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6166,7 +6166,7 @@
         <v>317</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>318</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
         <v>319</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
         <v>320</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>321</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6206,7 +6206,7 @@
         <v>322</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6214,7 +6214,7 @@
         <v>323</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6222,7 +6222,7 @@
         <v>324</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6230,7 +6230,7 @@
         <v>325</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6238,7 +6238,7 @@
         <v>326</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
         <v>327</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6254,7 +6254,7 @@
         <v>328</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
         <v>329</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6270,7 +6270,7 @@
         <v>330</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6278,7 +6278,7 @@
         <v>331</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6286,7 +6286,7 @@
         <v>332</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6294,7 +6294,7 @@
         <v>333</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6302,7 +6302,7 @@
         <v>334</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6310,7 +6310,7 @@
         <v>335</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6318,7 +6318,7 @@
         <v>336</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
         <v>337</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6334,7 +6334,7 @@
         <v>338</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6342,7 +6342,7 @@
         <v>339</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6350,7 +6350,7 @@
         <v>340</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
         <v>341</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6366,7 +6366,7 @@
         <v>342</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6374,7 +6374,7 @@
         <v>343</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6382,7 +6382,7 @@
         <v>344</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>345</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6398,7 +6398,7 @@
         <v>346</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6406,7 +6406,7 @@
         <v>347</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6414,7 +6414,7 @@
         <v>348</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
         <v>349</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
         <v>350</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>351</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6446,7 +6446,7 @@
         <v>352</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6454,7 +6454,7 @@
         <v>353</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6462,7 +6462,7 @@
         <v>354</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6470,7 +6470,7 @@
         <v>355</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6478,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6486,7 +6486,7 @@
         <v>356</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6494,7 +6494,7 @@
         <v>357</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6502,7 +6502,7 @@
         <v>358</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6510,7 +6510,7 @@
         <v>359</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6518,7 +6518,7 @@
         <v>360</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6526,7 +6526,7 @@
         <v>361</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6534,7 +6534,7 @@
         <v>362</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6542,7 +6542,7 @@
         <v>363</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6550,7 +6550,7 @@
         <v>364</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6558,7 +6558,7 @@
         <v>365</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6566,7 +6566,7 @@
         <v>366</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6574,7 +6574,7 @@
         <v>367</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6582,7 +6582,7 @@
         <v>368</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6590,7 +6590,7 @@
         <v>369</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6598,7 +6598,7 @@
         <v>370</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6606,7 +6606,7 @@
         <v>371</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
         <v>372</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6622,7 +6622,7 @@
         <v>373</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6630,7 +6630,7 @@
         <v>374</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6638,7 +6638,7 @@
         <v>375</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6646,7 +6646,7 @@
         <v>376</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6654,7 +6654,7 @@
         <v>377</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6662,7 +6662,7 @@
         <v>378</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6670,7 +6670,7 @@
         <v>379</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6678,7 +6678,7 @@
         <v>380</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6686,7 +6686,7 @@
         <v>381</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6694,7 +6694,7 @@
         <v>382</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6702,7 +6702,7 @@
         <v>383</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6710,7 +6710,7 @@
         <v>384</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6718,7 +6718,7 @@
         <v>385</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6726,7 +6726,7 @@
         <v>386</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6734,7 +6734,7 @@
         <v>387</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6742,7 +6742,7 @@
         <v>388</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6750,7 +6750,7 @@
         <v>389</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6758,7 +6758,7 @@
         <v>390</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6766,7 +6766,7 @@
         <v>391</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6774,7 +6774,7 @@
         <v>392</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6782,7 +6782,7 @@
         <v>393</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>394</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6798,7 +6798,7 @@
         <v>395</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6806,7 +6806,7 @@
         <v>396</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
         <v>397</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6822,7 +6822,7 @@
         <v>398</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6830,7 +6830,7 @@
         <v>399</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6838,7 +6838,7 @@
         <v>400</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6846,7 +6846,7 @@
         <v>401</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6854,7 +6854,7 @@
         <v>402</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6862,7 +6862,7 @@
         <v>403</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6870,7 +6870,7 @@
         <v>404</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6878,7 +6878,7 @@
         <v>405</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6886,7 +6886,7 @@
         <v>406</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6894,7 +6894,7 @@
         <v>407</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6902,7 +6902,7 @@
         <v>408</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6910,7 +6910,7 @@
         <v>409</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6918,7 +6918,7 @@
         <v>410</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6926,7 +6926,7 @@
         <v>411</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6934,7 +6934,7 @@
         <v>412</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6942,7 +6942,7 @@
         <v>413</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6950,7 +6950,7 @@
         <v>414</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6958,7 +6958,7 @@
         <v>415</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
         <v>416</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6974,7 +6974,7 @@
         <v>417</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6982,7 +6982,7 @@
         <v>418</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6990,7 +6990,7 @@
         <v>419</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -6998,7 +6998,7 @@
         <v>420</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -7006,7 +7006,7 @@
         <v>421</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -7014,7 +7014,7 @@
         <v>422</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7022,7 +7022,7 @@
         <v>423</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7030,7 +7030,7 @@
         <v>424</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7038,7 +7038,7 @@
         <v>425</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7046,7 +7046,7 @@
         <v>426</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>427</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7062,7 +7062,7 @@
         <v>428</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7070,7 +7070,7 @@
         <v>429</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7078,7 +7078,7 @@
         <v>430</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7086,7 +7086,7 @@
         <v>431</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7094,7 +7094,7 @@
         <v>432</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7102,7 +7102,7 @@
         <v>433</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7110,7 +7110,7 @@
         <v>434</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7118,7 +7118,7 @@
         <v>435</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7126,7 +7126,7 @@
         <v>436</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7134,7 +7134,7 @@
         <v>437</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7142,7 +7142,7 @@
         <v>438</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7150,7 +7150,7 @@
         <v>439</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7158,7 +7158,7 @@
         <v>440</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7166,7 +7166,7 @@
         <v>441</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7174,7 +7174,7 @@
         <v>442</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
         <v>443</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7190,7 +7190,7 @@
         <v>444</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7198,7 +7198,7 @@
         <v>445</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7206,7 +7206,7 @@
         <v>446</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7214,7 +7214,7 @@
         <v>447</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7222,7 +7222,7 @@
         <v>448</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7230,7 +7230,7 @@
         <v>449</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7238,7 +7238,7 @@
         <v>450</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7246,7 +7246,7 @@
         <v>451</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7254,7 +7254,7 @@
         <v>452</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7262,7 +7262,7 @@
         <v>453</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7270,7 +7270,7 @@
         <v>454</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7278,7 +7278,7 @@
         <v>455</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7286,7 +7286,7 @@
         <v>456</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7294,7 +7294,7 @@
         <v>457</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7302,7 +7302,7 @@
         <v>458</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7310,7 +7310,7 @@
         <v>459</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7318,7 +7318,7 @@
         <v>460</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7326,7 +7326,7 @@
         <v>461</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7334,7 +7334,7 @@
         <v>462</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7342,7 +7342,7 @@
         <v>463</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
         <v>464</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7358,7 +7358,7 @@
         <v>465</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7366,7 +7366,7 @@
         <v>466</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7374,7 +7374,7 @@
         <v>467</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7382,7 +7382,7 @@
         <v>468</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>469</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7398,7 +7398,7 @@
         <v>470</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7406,7 +7406,7 @@
         <v>471</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7414,7 +7414,7 @@
         <v>472</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7422,7 +7422,7 @@
         <v>473</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7430,15 +7430,15 @@
         <v>474</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7446,7 +7446,7 @@
         <v>475</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7454,7 +7454,7 @@
         <v>476</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7462,7 +7462,7 @@
         <v>477</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7470,7 +7470,7 @@
         <v>478</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7478,7 +7478,7 @@
         <v>479</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7486,7 +7486,7 @@
         <v>480</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7494,7 +7494,7 @@
         <v>481</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7502,7 +7502,7 @@
         <v>482</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7510,7 +7510,7 @@
         <v>483</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7518,7 +7518,7 @@
         <v>484</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
         <v>485</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7534,7 +7534,7 @@
         <v>486</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7542,7 +7542,7 @@
         <v>487</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7550,7 +7550,7 @@
         <v>488</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7558,7 +7558,7 @@
         <v>489</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7566,7 +7566,7 @@
         <v>490</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>491</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7582,7 +7582,7 @@
         <v>492</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7590,7 +7590,7 @@
         <v>493</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7598,7 +7598,7 @@
         <v>494</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7606,7 +7606,7 @@
         <v>495</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7614,7 +7614,7 @@
         <v>496</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7622,7 +7622,7 @@
         <v>497</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7630,7 +7630,7 @@
         <v>498</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7638,7 +7638,7 @@
         <v>499</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7646,7 +7646,7 @@
         <v>500</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7654,15 +7654,15 @@
         <v>501</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7670,7 +7670,7 @@
         <v>502</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7678,15 +7678,15 @@
         <v>503</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7694,7 +7694,7 @@
         <v>504</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7702,7 +7702,7 @@
         <v>505</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7710,7 +7710,7 @@
         <v>506</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7718,39 +7718,39 @@
         <v>507</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B522" t="s">
         <v>1037</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B523" t="s">
         <v>1039</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -7936,7 +7936,7 @@
     <hyperlink ref="B183" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
     <hyperlink ref="B184" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
     <hyperlink ref="B186" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B187" r:id="rId182" display="https://static.tildacdn.com/stor6132-3834-4436-b731-643665643965/22019043.jpg" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
     <hyperlink ref="B188" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
     <hyperlink ref="B189" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
     <hyperlink ref="B190" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8541D-9398-964D-9D6A-20CBE37B0972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63C9A5-1DA7-3344-B459-3D6E0BA00AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="1042">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -3143,6 +3143,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor3437-3635-4966-a166-646538653461/-/format/webp/60783726.jpg</t>
+  </si>
+  <si>
+    <t>Godfall Ultimate Edition PS4/PS5</t>
   </si>
 </sst>
 </file>
@@ -3557,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="B524" sqref="B524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7751,6 +7754,14 @@
       </c>
       <c r="B523" t="s">
         <v>1039</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63C9A5-1DA7-3344-B459-3D6E0BA00AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB5F8CD-E6D6-464F-8859-8F97FFC53D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1831,9 +1831,6 @@
     <t>https://static.tildacdn.com/stor3033-3930-4430-b639-343466626133/64360905.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3134-3966-4432-a435-303434653535/98440447.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor6136-3263-4435-b431-353539346134/15439769.jpg</t>
   </si>
   <si>
@@ -2260,9 +2257,6 @@
     <t>https://static.tildacdn.com/stor3664-6462-4139-b238-663163333936/72405319.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6361-6461-4264-b565-393132306435/55318110.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3163-3865-4232-b032-356237633162/60870949.jpg</t>
   </si>
   <si>
@@ -3146,6 +3140,12 @@
   </si>
   <si>
     <t>Godfall Ultimate Edition PS4/PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6635-3239-4239-b532-343962663232/-/format/webp/81167813.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6362-3331-4138-b163-373636393134/-/format/webp/76500989.jpg</t>
   </si>
 </sst>
 </file>
@@ -3562,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="B524" sqref="B524"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3574,10 +3574,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -4057,7 +4057,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4065,7 +4065,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4369,7 +4369,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>603</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4393,7 +4393,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4401,7 +4401,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4425,7 +4425,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4441,7 +4441,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4457,15 +4457,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4473,7 +4473,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4489,7 +4489,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4497,7 +4497,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4513,7 +4513,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4521,15 +4521,15 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4553,7 +4553,7 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4561,7 +4561,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4593,7 +4593,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4609,7 +4609,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4625,7 +4625,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4633,7 +4633,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4641,7 +4641,7 @@
         <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4681,7 +4681,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4689,7 +4689,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4705,7 +4705,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4713,7 +4713,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4729,7 +4729,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4737,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4761,7 +4761,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4801,7 +4801,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4809,7 +4809,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4817,7 +4817,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4825,7 +4825,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4849,7 +4849,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,7 +4897,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4921,7 +4921,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4929,7 +4929,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4937,7 +4937,7 @@
         <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4953,7 +4953,7 @@
         <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>172</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4985,7 +4985,7 @@
         <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>175</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5017,7 +5017,7 @@
         <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
         <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5033,7 +5033,7 @@
         <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5049,7 +5049,7 @@
         <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5057,7 +5057,7 @@
         <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
         <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
         <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5089,7 +5089,7 @@
         <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5097,15 +5097,15 @@
         <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5121,7 +5121,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5129,15 +5129,15 @@
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5161,7 +5161,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5169,7 +5169,7 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5177,7 +5177,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5185,7 +5185,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5193,7 +5193,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5209,7 +5209,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5249,7 +5249,7 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5265,7 +5265,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5273,7 +5273,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5281,7 +5281,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5289,7 +5289,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5313,7 +5313,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5329,7 +5329,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5337,7 +5337,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5345,7 +5345,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5369,7 +5369,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5377,7 +5377,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5385,7 +5385,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5401,7 +5401,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5425,7 +5425,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5449,7 +5449,7 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5457,7 +5457,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5489,7 +5489,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5497,7 +5497,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5505,7 +5505,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5513,7 +5513,7 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5521,7 +5521,7 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5529,7 +5529,7 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5553,7 +5553,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5561,7 +5561,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>746</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5569,7 +5569,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5585,7 +5585,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5601,7 +5601,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5617,7 +5617,7 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5633,7 +5633,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5657,7 +5657,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5673,7 +5673,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5681,7 +5681,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5689,7 +5689,7 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5697,7 +5697,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5713,7 +5713,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5729,7 +5729,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5737,7 +5737,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5761,15 +5761,15 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5777,7 +5777,7 @@
         <v>269</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5785,7 +5785,7 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>271</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>272</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>273</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5817,7 +5817,7 @@
         <v>274</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@
         <v>275</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>276</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
         <v>277</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5849,7 +5849,7 @@
         <v>278</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>279</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5865,7 +5865,7 @@
         <v>280</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5873,7 +5873,7 @@
         <v>281</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5881,7 +5881,7 @@
         <v>282</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5889,7 +5889,7 @@
         <v>283</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5897,7 +5897,7 @@
         <v>284</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5905,7 +5905,7 @@
         <v>285</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
         <v>286</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5921,7 +5921,7 @@
         <v>287</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5929,7 +5929,7 @@
         <v>288</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5937,7 +5937,7 @@
         <v>289</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>290</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5953,7 +5953,7 @@
         <v>291</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5961,7 +5961,7 @@
         <v>292</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5969,7 +5969,7 @@
         <v>293</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5977,7 +5977,7 @@
         <v>294</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5985,7 +5985,7 @@
         <v>295</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5993,7 +5993,7 @@
         <v>296</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -6001,7 +6001,7 @@
         <v>297</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -6009,7 +6009,7 @@
         <v>298</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -6017,7 +6017,7 @@
         <v>299</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6025,7 +6025,7 @@
         <v>300</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
         <v>301</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6041,7 +6041,7 @@
         <v>302</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6049,7 +6049,7 @@
         <v>303</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6057,7 +6057,7 @@
         <v>304</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
         <v>305</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6073,7 +6073,7 @@
         <v>306</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6081,7 +6081,7 @@
         <v>307</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6089,7 +6089,7 @@
         <v>308</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6097,7 +6097,7 @@
         <v>309</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6105,7 +6105,7 @@
         <v>310</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
         <v>311</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6121,7 +6121,7 @@
         <v>312</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6129,7 +6129,7 @@
         <v>313</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6137,7 +6137,7 @@
         <v>314</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6145,7 +6145,7 @@
         <v>315</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6161,7 +6161,7 @@
         <v>316</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
         <v>317</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6177,7 +6177,7 @@
         <v>318</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>319</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
         <v>320</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6201,7 +6201,7 @@
         <v>321</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>322</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>323</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6225,7 +6225,7 @@
         <v>324</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6233,7 +6233,7 @@
         <v>325</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6241,7 +6241,7 @@
         <v>326</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
         <v>327</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6257,7 +6257,7 @@
         <v>328</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
         <v>329</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
         <v>330</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6281,7 +6281,7 @@
         <v>331</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
         <v>332</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6297,7 +6297,7 @@
         <v>333</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>334</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6313,7 +6313,7 @@
         <v>335</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
         <v>336</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
         <v>337</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6337,7 +6337,7 @@
         <v>338</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6345,7 +6345,7 @@
         <v>339</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6353,7 +6353,7 @@
         <v>340</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
         <v>341</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6369,7 +6369,7 @@
         <v>342</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6377,7 +6377,7 @@
         <v>343</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
         <v>344</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6393,7 +6393,7 @@
         <v>345</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
         <v>346</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6409,7 +6409,7 @@
         <v>347</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
         <v>348</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6425,7 +6425,7 @@
         <v>349</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6433,7 +6433,7 @@
         <v>350</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>351</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6449,7 +6449,7 @@
         <v>352</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6457,7 +6457,7 @@
         <v>353</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
         <v>354</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
         <v>355</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
         <v>356</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6497,7 +6497,7 @@
         <v>357</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
         <v>358</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6513,7 +6513,7 @@
         <v>359</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6521,7 +6521,7 @@
         <v>360</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6529,7 +6529,7 @@
         <v>361</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
         <v>362</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
         <v>363</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6553,7 +6553,7 @@
         <v>364</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
         <v>365</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>366</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6577,7 +6577,7 @@
         <v>367</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
         <v>368</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6593,7 +6593,7 @@
         <v>369</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6601,7 +6601,7 @@
         <v>370</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6609,7 +6609,7 @@
         <v>371</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6617,7 +6617,7 @@
         <v>372</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6625,7 +6625,7 @@
         <v>373</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
         <v>374</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6641,7 +6641,7 @@
         <v>375</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
         <v>376</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>377</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6665,7 +6665,7 @@
         <v>378</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6673,7 +6673,7 @@
         <v>379</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6681,7 +6681,7 @@
         <v>380</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6689,7 +6689,7 @@
         <v>381</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6697,7 +6697,7 @@
         <v>382</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6705,7 +6705,7 @@
         <v>383</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>384</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6721,7 +6721,7 @@
         <v>385</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6729,7 +6729,7 @@
         <v>386</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6737,7 +6737,7 @@
         <v>387</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6745,7 +6745,7 @@
         <v>388</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6753,7 +6753,7 @@
         <v>389</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6761,7 +6761,7 @@
         <v>390</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6769,7 +6769,7 @@
         <v>391</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
         <v>392</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6785,7 +6785,7 @@
         <v>393</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6793,7 +6793,7 @@
         <v>394</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
         <v>395</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6809,7 +6809,7 @@
         <v>396</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6817,7 +6817,7 @@
         <v>397</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
         <v>398</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>399</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6841,7 +6841,7 @@
         <v>400</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6849,7 +6849,7 @@
         <v>401</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6857,7 +6857,7 @@
         <v>402</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6865,7 +6865,7 @@
         <v>403</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6873,7 +6873,7 @@
         <v>404</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6881,7 +6881,7 @@
         <v>405</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6889,7 +6889,7 @@
         <v>406</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6897,7 +6897,7 @@
         <v>407</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6905,7 +6905,7 @@
         <v>408</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -6913,7 +6913,7 @@
         <v>409</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -6921,7 +6921,7 @@
         <v>410</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -6929,7 +6929,7 @@
         <v>411</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -6937,7 +6937,7 @@
         <v>412</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -6945,7 +6945,7 @@
         <v>413</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -6953,7 +6953,7 @@
         <v>414</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -6961,7 +6961,7 @@
         <v>415</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
         <v>416</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -6977,7 +6977,7 @@
         <v>417</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
         <v>418</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
         <v>419</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -7001,7 +7001,7 @@
         <v>420</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -7009,7 +7009,7 @@
         <v>421</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -7017,7 +7017,7 @@
         <v>422</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -7025,7 +7025,7 @@
         <v>423</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -7033,7 +7033,7 @@
         <v>424</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -7041,7 +7041,7 @@
         <v>425</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -7049,7 +7049,7 @@
         <v>426</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -7057,7 +7057,7 @@
         <v>427</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>428</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -7073,7 +7073,7 @@
         <v>429</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -7081,7 +7081,7 @@
         <v>430</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -7089,7 +7089,7 @@
         <v>431</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -7097,7 +7097,7 @@
         <v>432</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -7105,7 +7105,7 @@
         <v>433</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -7113,7 +7113,7 @@
         <v>434</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -7121,7 +7121,7 @@
         <v>435</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,7 @@
         <v>436</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -7137,7 +7137,7 @@
         <v>437</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -7145,7 +7145,7 @@
         <v>438</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -7153,7 +7153,7 @@
         <v>439</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
         <v>440</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -7169,7 +7169,7 @@
         <v>441</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -7177,7 +7177,7 @@
         <v>442</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -7185,7 +7185,7 @@
         <v>443</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -7193,7 +7193,7 @@
         <v>444</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -7201,7 +7201,7 @@
         <v>445</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -7209,7 +7209,7 @@
         <v>446</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -7217,7 +7217,7 @@
         <v>447</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -7225,7 +7225,7 @@
         <v>448</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -7233,7 +7233,7 @@
         <v>449</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -7241,7 +7241,7 @@
         <v>450</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -7249,7 +7249,7 @@
         <v>451</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -7257,7 +7257,7 @@
         <v>452</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -7265,7 +7265,7 @@
         <v>453</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -7273,7 +7273,7 @@
         <v>454</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
         <v>455</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -7289,7 +7289,7 @@
         <v>456</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -7297,7 +7297,7 @@
         <v>457</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -7305,7 +7305,7 @@
         <v>458</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -7313,7 +7313,7 @@
         <v>459</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -7321,7 +7321,7 @@
         <v>460</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -7329,7 +7329,7 @@
         <v>461</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7337,7 +7337,7 @@
         <v>462</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -7345,7 +7345,7 @@
         <v>463</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -7353,7 +7353,7 @@
         <v>464</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -7361,7 +7361,7 @@
         <v>465</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -7369,7 +7369,7 @@
         <v>466</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>467</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -7385,7 +7385,7 @@
         <v>468</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -7393,7 +7393,7 @@
         <v>469</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -7401,7 +7401,7 @@
         <v>470</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -7409,7 +7409,7 @@
         <v>471</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -7417,7 +7417,7 @@
         <v>472</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -7425,7 +7425,7 @@
         <v>473</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -7433,15 +7433,15 @@
         <v>474</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -7449,7 +7449,7 @@
         <v>475</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -7457,7 +7457,7 @@
         <v>476</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -7465,7 +7465,7 @@
         <v>477</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -7473,7 +7473,7 @@
         <v>478</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -7481,7 +7481,7 @@
         <v>479</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -7489,7 +7489,7 @@
         <v>480</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
         <v>481</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>482</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -7513,7 +7513,7 @@
         <v>483</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -7521,7 +7521,7 @@
         <v>484</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
         <v>485</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -7537,7 +7537,7 @@
         <v>486</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -7545,7 +7545,7 @@
         <v>487</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -7553,7 +7553,7 @@
         <v>488</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -7561,7 +7561,7 @@
         <v>489</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -7569,7 +7569,7 @@
         <v>490</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -7577,7 +7577,7 @@
         <v>491</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -7585,7 +7585,7 @@
         <v>492</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -7593,7 +7593,7 @@
         <v>493</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -7601,7 +7601,7 @@
         <v>494</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -7609,7 +7609,7 @@
         <v>495</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -7617,7 +7617,7 @@
         <v>496</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
         <v>497</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -7633,7 +7633,7 @@
         <v>498</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -7641,7 +7641,7 @@
         <v>499</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -7649,7 +7649,7 @@
         <v>500</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -7657,15 +7657,15 @@
         <v>501</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -7673,7 +7673,7 @@
         <v>502</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -7681,15 +7681,15 @@
         <v>503</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -7697,7 +7697,7 @@
         <v>504</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -7705,7 +7705,7 @@
         <v>505</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -7713,7 +7713,7 @@
         <v>506</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -7721,47 +7721,47 @@
         <v>507</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B522" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B523" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B524" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -7862,7 +7862,7 @@
     <hyperlink ref="B97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="B98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="B99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B100" r:id="rId97" display="https://static.tildacdn.com/stor3134-3966-4432-a435-303434653535/98440447.jpg" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="B101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="B103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
@@ -8009,277 +8009,276 @@
     <hyperlink ref="B246" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
     <hyperlink ref="B247" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="B248" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B302" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B303" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B304" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B305" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B306" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B307" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B308" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B309" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B310" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B311" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B312" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B313" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B314" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B315" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B316" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B317" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B318" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B319" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B320" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B321" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B322" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B323" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B324" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B325" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B326" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B327" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B328" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B329" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B330" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B331" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B332" r:id="rId327" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B333" r:id="rId328" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B334" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B335" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B336" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B337" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B338" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B339" r:id="rId334" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B340" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B341" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B342" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B343" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B344" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B345" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B346" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B347" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B348" r:id="rId343" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B349" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B350" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B351" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B352" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B353" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B354" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B355" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B356" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B357" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B358" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B359" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B360" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B361" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B362" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B363" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B364" r:id="rId359" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B365" r:id="rId360" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B366" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B367" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B368" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B369" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B370" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B371" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B372" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B373" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B374" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B375" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B376" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B377" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B378" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B379" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B380" r:id="rId375" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B381" r:id="rId376" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B382" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B383" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B384" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B385" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B386" r:id="rId381" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B387" r:id="rId382" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B388" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B389" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B390" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B391" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B392" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B394" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B395" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B396" r:id="rId390" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B397" r:id="rId391" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B398" r:id="rId392" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B399" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B400" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B401" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B402" r:id="rId396" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B403" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B404" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B405" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B406" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B407" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B408" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B409" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B410" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B411" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B412" r:id="rId406" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B413" r:id="rId407" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B414" r:id="rId408" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B415" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B416" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B417" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B418" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B419" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B420" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B421" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B422" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B423" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B424" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B425" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B426" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B427" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B428" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B429" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B430" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B431" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B432" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B433" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B434" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B435" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B436" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B437" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B438" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B439" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B440" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B441" r:id="rId435" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B442" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B443" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B444" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B445" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B446" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B447" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="B448" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="B449" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="B450" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="B451" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="B452" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="B453" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="B454" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="B455" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="B456" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="B457" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="B458" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="B459" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="B460" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="B461" r:id="rId455" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B462" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="B463" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B464" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="B465" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B466" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="B468" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="B469" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B470" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="B471" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B472" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="B473" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B474" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="B475" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B476" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="B477" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B478" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="B479" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B480" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="B481" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B482" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="B483" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B484" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="B485" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B486" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="B487" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B488" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="B489" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B490" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="B491" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B492" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="B493" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B494" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="B495" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B496" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="B497" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B498" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="B499" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B500" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="B501" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B502" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="B503" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B504" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="B505" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B506" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="B507" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B508" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="B509" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B510" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="B511" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B512" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="B513" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B514" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="B515" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B516" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="B517" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B518" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="B519" r:id="rId512" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B520" r:id="rId513" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
-    <hyperlink ref="B521" r:id="rId514" xr:uid="{6259FDDF-64FB-1643-A644-A214EC519E88}"/>
+    <hyperlink ref="B250" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B274" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B275" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B276" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B277" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B278" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B279" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B280" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B281" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B282" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B283" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B284" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B285" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B286" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B287" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B288" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B289" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B290" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B291" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B292" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B293" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B294" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B295" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B296" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B297" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B298" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B299" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B300" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B301" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B302" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B303" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B304" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B305" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B306" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B307" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B308" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B309" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B310" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B311" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B312" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B313" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B314" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B315" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B316" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B317" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B318" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B319" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B320" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B321" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B322" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B323" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B324" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B325" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B326" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B327" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B328" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B329" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B330" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B331" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B332" r:id="rId326" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B333" r:id="rId327" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B334" r:id="rId328" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B335" r:id="rId329" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B336" r:id="rId330" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B337" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B338" r:id="rId332" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B339" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B340" r:id="rId334" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B341" r:id="rId335" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B342" r:id="rId336" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B343" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B344" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B345" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B346" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B347" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B348" r:id="rId342" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B349" r:id="rId343" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B350" r:id="rId344" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B351" r:id="rId345" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B352" r:id="rId346" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B353" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B354" r:id="rId348" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B355" r:id="rId349" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B356" r:id="rId350" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B357" r:id="rId351" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B358" r:id="rId352" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B359" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B360" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B361" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B362" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B363" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B364" r:id="rId358" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B365" r:id="rId359" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B366" r:id="rId360" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B367" r:id="rId361" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B368" r:id="rId362" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B369" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B370" r:id="rId364" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B371" r:id="rId365" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B372" r:id="rId366" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B373" r:id="rId367" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B374" r:id="rId368" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B375" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B376" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B377" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B378" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B379" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B380" r:id="rId374" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B381" r:id="rId375" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B382" r:id="rId376" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B383" r:id="rId377" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B384" r:id="rId378" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B385" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B386" r:id="rId380" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B387" r:id="rId381" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B388" r:id="rId382" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B389" r:id="rId383" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B390" r:id="rId384" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B391" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B392" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B394" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B395" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B396" r:id="rId389" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B397" r:id="rId390" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B398" r:id="rId391" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B399" r:id="rId392" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B400" r:id="rId393" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B401" r:id="rId394" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B402" r:id="rId395" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B403" r:id="rId396" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B404" r:id="rId397" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B405" r:id="rId398" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B406" r:id="rId399" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B407" r:id="rId400" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B408" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B409" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B410" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B411" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B412" r:id="rId405" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B413" r:id="rId406" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B414" r:id="rId407" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B415" r:id="rId408" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B416" r:id="rId409" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B417" r:id="rId410" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B418" r:id="rId411" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B419" r:id="rId412" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B420" r:id="rId413" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B421" r:id="rId414" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B422" r:id="rId415" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B423" r:id="rId416" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B424" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B425" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B426" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B427" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B428" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B429" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B430" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B431" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B432" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B433" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B434" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B435" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B436" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B437" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B438" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B439" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B440" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B441" r:id="rId434" display="https://static.tildacdn.com/stor6563-6230-4832-b432-316634636366/51856595.jpg" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B442" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B443" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B444" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B445" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B446" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B447" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B448" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="B449" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="B450" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="B451" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="B452" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="B453" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="B454" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="B455" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="B456" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="B457" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="B458" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="B459" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="B460" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="B461" r:id="rId454" display="https://static.tildacdn.com/stor6362-6438-4638-a434-313132303166/89870440.png" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="B462" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="B463" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B464" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="B465" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B466" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="B468" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="B469" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B470" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="B471" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B472" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="B473" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B474" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="B475" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B476" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="B477" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B478" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="B479" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B480" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="B481" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B482" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="B483" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B484" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="B485" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B486" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="B487" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B488" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="B489" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B490" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="B491" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B492" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="B493" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B494" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="B495" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B496" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="B497" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B498" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="B499" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B500" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="B501" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B502" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="B503" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B504" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="B505" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B506" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="B507" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B508" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="B509" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B510" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="B511" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B512" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="B513" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B514" r:id="rId506" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="B515" r:id="rId507" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B516" r:id="rId508" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="B517" r:id="rId509" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B518" r:id="rId510" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="B519" r:id="rId511" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B520" r:id="rId512" xr:uid="{3E0E8D6E-1371-3A45-80C1-7C2C4997F519}"/>
+    <hyperlink ref="B521" r:id="rId513" xr:uid="{6259FDDF-64FB-1643-A644-A214EC519E88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB5F8CD-E6D6-464F-8859-8F97FFC53D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2619A-95B9-CD45-BA90-8EDF8118B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,9 +1246,6 @@
     <t>Uncharted 1,2,3 Drake Collection PS4/PS5</t>
   </si>
   <si>
-    <t>UNCHARTED 4: A Thief’s End &amp;amp; UNCHARTED: The Lost Legacy PS4/PS5</t>
-  </si>
-  <si>
     <t>Uncharted 4: A Thief’s End PS4/PS5</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t>https://optim.tildacdn.com/stor6362-3331-4138-b163-373636393134/-/format/webp/76500989.jpg</t>
+  </si>
+  <si>
+    <t>UNCHARTED 4: A Thiefs End &amp; UNCHARTED: The Lost Legacy PS4/PS5</t>
   </si>
 </sst>
 </file>
@@ -3562,22 +3562,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.33203125" customWidth="1"/>
+    <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="96.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3609,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3617,7 +3617,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3625,7 +3625,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3633,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3641,7 +3641,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3649,7 +3649,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3673,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3697,7 +3697,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3705,7 +3705,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3729,7 +3729,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3745,7 +3745,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3761,7 +3761,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3769,7 +3769,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3777,7 +3777,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3793,7 +3793,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3801,7 +3801,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3825,7 +3825,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3849,7 +3849,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3857,7 +3857,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3865,7 +3865,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3889,7 +3889,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3913,7 +3913,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3969,7 +3969,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3977,7 +3977,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4001,7 +4001,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4009,7 +4009,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4017,7 +4017,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4025,7 +4025,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4033,7 +4033,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4057,7 +4057,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4065,7 +4065,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4073,7 +4073,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4081,7 +4081,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4137,7 +4137,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4145,7 +4145,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4161,7 +4161,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4185,7 +4185,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4201,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4217,7 +4217,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4225,7 +4225,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4233,7 +4233,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4241,7 +4241,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4265,7 +4265,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4273,7 +4273,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4289,7 +4289,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4297,7 +4297,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4305,7 +4305,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4321,7 +4321,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4329,7 +4329,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4353,7 +4353,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4369,7 +4369,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4393,7 +4393,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4401,7 +4401,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4425,7 +4425,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4441,7 +4441,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4457,15 +4457,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4473,7 +4473,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4489,7 +4489,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4497,7 +4497,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4513,7 +4513,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4521,15 +4521,15 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4553,7 +4553,7 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4561,7 +4561,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4593,7 +4593,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4609,7 +4609,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4625,7 +4625,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4633,7 +4633,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4641,7 +4641,7 @@
         <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4681,7 +4681,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4689,7 +4689,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4705,7 +4705,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4713,7 +4713,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4729,7 +4729,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4737,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4761,7 +4761,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4801,7 +4801,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4809,7 +4809,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4817,7 +4817,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4825,7 +4825,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4849,7 +4849,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,7 +4897,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4921,7 +4921,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4929,7 +4929,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4937,7 +4937,7 @@
         <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4953,7 +4953,7 @@
         <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>172</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4985,7 +4985,7 @@
         <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>175</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5017,7 +5017,7 @@
         <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
         <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5033,7 +5033,7 @@
         <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5049,7 +5049,7 @@
         <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5057,7 +5057,7 @@
         <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
         <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
         <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5089,7 +5089,7 @@
         <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5097,15 +5097,15 @@
         <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5121,7 +5121,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5129,15 +5129,15 @@
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5161,7 +5161,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5169,7 +5169,7 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5177,7 +5177,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5185,7 +5185,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5193,7 +5193,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5209,7 +5209,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5249,7 +5249,7 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5265,7 +5265,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5273,7 +5273,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5281,7 +5281,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5289,7 +5289,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5313,7 +5313,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5329,7 +5329,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5337,7 +5337,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5345,7 +5345,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5369,7 +5369,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5377,7 +5377,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5385,7 +5385,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5401,7 +5401,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5425,7 +5425,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5449,7 +5449,7 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5457,7 +5457,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5489,7 +5489,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5497,7 +5497,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5505,7 +5505,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5513,7 +5513,7 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5521,7 +5521,7 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5529,7 +5529,7 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5553,7 +5553,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5561,7 +5561,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5569,7 +5569,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5585,7 +5585,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5601,7 +5601,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5617,7 +5617,7 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5633,7 +5633,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5657,7 +5657,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5673,7 +5673,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5681,7 +5681,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5689,7 +5689,7 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5697,7 +5697,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5713,7 +5713,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5729,7 +5729,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5737,7 +5737,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5761,15 +5761,15 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5777,7 +5777,7 @@
         <v>269</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5785,7 +5785,7 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>271</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>272</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>273</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5817,7 +5817,7 @@
         <v>274</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@
         <v>275</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>276</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
         <v>277</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -5849,7 +5849,7 @@
         <v>278</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>279</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -5865,7 +5865,7 @@
         <v>280</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -5873,7 +5873,7 @@
         <v>281</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -5881,7 +5881,7 @@
         <v>282</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -5889,7 +5889,7 @@
         <v>283</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -5897,7 +5897,7 @@
         <v>284</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -5905,7 +5905,7 @@
         <v>285</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
         <v>286</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -5921,7 +5921,7 @@
         <v>287</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -5929,7 +5929,7 @@
         <v>288</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -5937,7 +5937,7 @@
         <v>289</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5945,7 +5945,7 @@
         <v>290</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5953,7 +5953,7 @@
         <v>291</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -5961,7 +5961,7 @@
         <v>292</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -5969,7 +5969,7 @@
         <v>293</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -5977,7 +5977,7 @@
         <v>294</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -5985,7 +5985,7 @@
         <v>295</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -5993,7 +5993,7 @@
         <v>296</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -6001,7 +6001,7 @@
         <v>297</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -6009,7 +6009,7 @@
         <v>298</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -6017,7 +6017,7 @@
         <v>299</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -6025,7 +6025,7 @@
         <v>300</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -6033,7 +6033,7 @@
         <v>301</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -6041,7 +6041,7 @@
         <v>302</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -6049,7 +6049,7 @@
         <v>303</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -6057,7 +6057,7 @@
         <v>304</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
         <v>305</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -6073,7 +6073,7 @@
         <v>306</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6081,7 +6081,7 @@
         <v>307</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6089,7 +6089,7 @@
         <v>308</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6097,7 +6097,7 @@
         <v>309</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -6105,7 +6105,7 @@
         <v>310</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -6113,7 +6113,7 @@
         <v>311</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -6121,7 +6121,7 @@
         <v>312</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -6129,7 +6129,7 @@
         <v>313</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -6137,7 +6137,7 @@
         <v>314</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -6145,7 +6145,7 @@
         <v>315</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>46</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6161,7 +6161,7 @@
         <v>316</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
         <v>317</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -6177,7 +6177,7 @@
         <v>318</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>319</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
         <v>320</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -6201,7 +6201,7 @@
         <v>321</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>322</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>323</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -6225,7 +6225,7 @@
         <v>324</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -6233,7 +6233,7 @@
         <v>325</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -6241,7 +6241,7 @@
         <v>326</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6249,7 +6249,7 @@
         <v>327</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -6257,7 +6257,7 @@
         <v>328</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6265,7 +6265,7 @@
         <v>329</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
         <v>330</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -6281,7 +6281,7 @@
         <v>331</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -6289,7 +6289,7 @@
         <v>332</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -6297,7 +6297,7 @@
         <v>333</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>334</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -6313,7 +6313,7 @@
         <v>335</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
         <v>336</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6329,7 +6329,7 @@
         <v>337</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -6337,7 +6337,7 @@
         <v>338</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -6345,7 +6345,7 @@
         <v>339</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -6353,7 +6353,7 @@
         <v>340</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
         <v>341</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -6369,7 +6369,7 @@
         <v>342</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -6377,7 +6377,7 @@
         <v>343</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -6385,7 +6385,7 @@
         <v>344</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -6393,7 +6393,7 @@
         <v>345</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -6401,7 +6401,7 @@
         <v>346</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -6409,7 +6409,7 @@
         <v>347</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
         <v>348</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -6425,7 +6425,7 @@
         <v>349</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -6433,7 +6433,7 @@
         <v>350</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>351</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6449,7 +6449,7 @@
         <v>352</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6457,7 +6457,7 @@
         <v>353</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
         <v>354</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6473,7 +6473,7 @@
         <v>355</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
         <v>356</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -6497,7 +6497,7 @@
         <v>357</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -6505,7 +6505,7 @@
         <v>358</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -6513,7 +6513,7 @@
         <v>359</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -6521,7 +6521,7 @@
         <v>360</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -6529,7 +6529,7 @@
         <v>361</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
         <v>362</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6545,7 +6545,7 @@
         <v>363</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6553,7 +6553,7 @@
         <v>364</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
         <v>365</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -6569,7 +6569,7 @@
         <v>366</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -6577,7 +6577,7 @@
         <v>367</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
         <v>368</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -6593,7 +6593,7 @@
         <v>369</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -6601,7 +6601,7 @@
         <v>370</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -6609,7 +6609,7 @@
         <v>371</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6617,7 +6617,7 @@
         <v>372</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6625,7 +6625,7 @@
         <v>373</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
         <v>374</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6641,7 +6641,7 @@
         <v>375</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6649,7 +6649,7 @@
         <v>376</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>377</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -6665,7 +6665,7 @@
         <v>378</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -6673,7 +6673,7 @@
         <v>379</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -6681,7 +6681,7 @@
         <v>380</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -6689,7 +6689,7 @@
         <v>381</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -6697,7 +6697,7 @@
         <v>382</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -6705,7 +6705,7 @@
         <v>383</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>384</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6721,7 +6721,7 @@
         <v>385</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -6729,7 +6729,7 @@
         <v>386</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -6737,7 +6737,7 @@
         <v>387</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -6745,7 +6745,7 @@
         <v>388</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -6753,7 +6753,7 @@
         <v>389</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -6761,7 +6761,7 @@
         <v>390</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -6769,7 +6769,7 @@
         <v>391</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
         <v>392</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -6785,7 +6785,7 @@
         <v>393</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -6793,7 +6793,7 @@
         <v>394</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
         <v>395</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -6809,7 +6809,7 @@
         <v>396</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -6817,7 +6817,7 @@
         <v>397</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
         <v>398</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -6833,7 +6833,7 @@
         <v>399</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6841,7 +6841,7 @@
         <v>400</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -6849,7 +6849,7 @@
         <v>401</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -6857,7 +6857,7 @@
         <v>402</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -6865,7 +6865,7 @@
         <v>403</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -6873,7 +6873,7 @@
         <v>404</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -6881,7 +6881,7 @@
         <v>405</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -6889,7 +6889,7 @@
         <v>406</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -6897,871 +6897,871 @@
         <v>407</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>408</v>
+        <v>1041</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B522" t="s">
         <v>1034</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B523" t="s">
         <v>1036</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B524" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>

--- a/Названия_и_первая_картинка.xlsx
+++ b/Названия_и_первая_картинка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2619A-95B9-CD45-BA90-8EDF8118B7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB410E04-18D5-A54E-A768-ECBD8CB5AA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1567,9 +1567,6 @@
     <t>https://static.tildacdn.com/stor3936-3461-4934-b665-386265323562/15232234.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3063-3865-4036-a633-316532663362/31723109.png</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3036-6230-4931-b263-636631623364/60345488.jpg</t>
   </si>
   <si>
@@ -1624,9 +1621,6 @@
     <t>https://static.tildacdn.com/stor3139-6131-4037-a131-356536623131/67575235.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3737-6233-4661-b138-653433313564/45166522.png</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3137-6630-4663-b638-343335316261/70700978.jpg</t>
   </si>
   <si>
@@ -2644,9 +2638,6 @@
     <t>https://static.tildacdn.com/stor6466-3531-4436-b164-643766333966/21873286.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor3262-3461-4037-b464-306635356262/55478354.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3239-3161-4133-a338-646137616264/55082791.jpg</t>
   </si>
   <si>
@@ -2749,9 +2740,6 @@
     <t>https://static.tildacdn.com/stor3032-6439-4533-b136-376533306661/59779721.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6135-6365-4165-a664-653963353662/97601280.jpg</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor3561-6664-4364-a634-303636326336/96027996.jpg</t>
   </si>
   <si>
@@ -2875,9 +2863,6 @@
     <t>https://static.tildacdn.com/stor6132-3632-4632-a361-613166326266/24072359.jpg</t>
   </si>
   <si>
-    <t>https://static.tildacdn.com/stor6537-6663-4465-b330-353433373330/10475965.png</t>
-  </si>
-  <si>
     <t>https://static.tildacdn.com/stor6131-3738-4331-b530-306239643537/63361152.jpg</t>
   </si>
   <si>
@@ -3146,6 +3131,21 @@
   </si>
   <si>
     <t>UNCHARTED 4: A Thiefs End &amp; UNCHARTED: The Lost Legacy PS4/PS5</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3562-6436-4231-b866-636662313034/-/format/webp/84532689.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3430-3263-4734-a665-613530393965/-/format/webp/54809482.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor6265-6233-4834-b438-393935316536/-/format/webp/58030380.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3961-3633-4334-b061-616332383663/-/format/webp/13314880.jpg</t>
+  </si>
+  <si>
+    <t>https://optim.tildacdn.com/stor3165-3330-4638-a135-303966366639/-/format/webp/18642710.jpg</t>
   </si>
 </sst>
 </file>
@@ -3562,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3574,10 +3574,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3649,7 +3649,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>515</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3673,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3697,7 +3697,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3705,7 +3705,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3713,7 +3713,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3721,7 +3721,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3729,7 +3729,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3745,7 +3745,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3753,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3761,7 +3761,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3769,7 +3769,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3777,7 +3777,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3793,7 +3793,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3801,7 +3801,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>534</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3809,7 +3809,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3825,7 +3825,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3833,7 +3833,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3841,7 +3841,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3849,7 +3849,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3857,7 +3857,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -3865,7 +3865,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -3889,7 +3889,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3913,7 +3913,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3969,7 +3969,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3977,7 +3977,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4001,7 +4001,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4009,7 +4009,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4017,7 +4017,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4025,7 +4025,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4033,7 +4033,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4057,7 +4057,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4065,7 +4065,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4073,7 +4073,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4081,7 +4081,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4113,7 +4113,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4137,7 +4137,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4145,7 +4145,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4153,7 +4153,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4161,7 +4161,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4169,7 +4169,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4185,7 +4185,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4201,7 +4201,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4209,7 +4209,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4217,7 +4217,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4225,7 +4225,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4233,7 +4233,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4241,7 +4241,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4249,7 +4249,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4265,7 +4265,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4273,7 +4273,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4281,7 +4281,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4289,7 +4289,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4297,7 +4297,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4305,7 +4305,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4321,7 +4321,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4329,7 +4329,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4337,7 +4337,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4353,7 +4353,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4369,7 +4369,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4377,7 +4377,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4385,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4393,7 +4393,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4401,7 +4401,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4417,7 +4417,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4425,7 +4425,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4433,7 +4433,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4441,7 +4441,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4457,15 +4457,15 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4473,7 +4473,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4481,7 +4481,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4489,7 +4489,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4497,7 +4497,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4505,7 +4505,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4513,7 +4513,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4521,15 +4521,15 @@
         <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4537,7 +4537,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4553,7 +4553,7 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4561,7 +4561,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4593,7 +4593,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -4609,7 +4609,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4625,7 +4625,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -4633,7 +4633,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4641,7 +4641,7 @@
         <v>130</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4649,7 +4649,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -4657,7 +4657,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -4665,7 +4665,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -4673,7 +4673,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -4681,7 +4681,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -4689,7 +4689,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -4705,7 +4705,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -4713,7 +4713,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4721,7 +4721,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -4729,7 +4729,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -4737,7 +4737,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -4753,7 +4753,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -4761,7 +4761,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4769,7 +4769,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -4793,7 +4793,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -4801,7 +4801,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -4809,7 +4809,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -4817,7 +4817,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -4825,7 +4825,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -4833,7 +4833,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -4841,7 +4841,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4849,7 +4849,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4873,7 +4873,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -4889,7 +4889,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,7 +4897,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4905,7 +4905,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -4921,7 +4921,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -4929,7 +4929,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -4937,7 +4937,7 @@
         <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
         <v>168</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -4953,7 +4953,7 @@
         <v>169</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -4961,7 +4961,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>172</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -4985,7 +4985,7 @@
         <v>173</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>174</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>175</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -5009,7 +5009,7 @@
         <v>176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -5017,7 +5017,7 @@
         <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
         <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -5033,7 +5033,7 @@
         <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>180</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -5049,7 +5049,7 @@
         <v>181</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -5057,7 +5057,7 @@
         <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -5073,7 +5073,7 @@
         <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
         <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -5089,7 +5089,7 @@
         <v>186</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -5097,15 +5097,15 @@
         <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -5121,7 +5121,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -5129,15 +5129,15 @@
         <v>190</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
         <v>191</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -5161,7 +5161,7 @@
         <v>193</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -5169,7 +5169,7 @@
         <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -5177,7 +5177,7 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -5185,7 +5185,7 @@
         <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -5193,7 +5193,7 @@
         <v>197</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>198</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -5209,7 +5209,7 @@
         <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>200</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>201</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
         <v>202</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5241,7 +5241,7 @@
         <v>203</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -5249,7 +5249,7 @@
         <v>204</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -5257,7 +5257,7 @@
         <v>205</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -5265,7 +5265,7 @@
         <v>206</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -5273,7 +5273,7 @@
         <v>207</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -5281,7 +5281,7 @@
         <v>208</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -5289,7 +5289,7 @@
         <v>209</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -5297,7 +5297,7 @@
         <v>210</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>211</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -5313,7 +5313,7 @@
         <v>212</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
         <v>213</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -5329,7 +5329,7 @@
         <v>214</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -5337,7 +5337,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -5345,7 +5345,7 @@
         <v>216</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -5353,7 +5353,7 @@
         <v>217</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
         <v>218</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -5369,7 +5369,7 @@
         <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -5377,7 +5377,7 @@
         <v>220</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -5385,7 +5385,7 @@
         <v>221</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
         <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -5401,7 +5401,7 @@
         <v>223</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -5409,7 +5409,7 @@
         <v>224</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -5417,7 +5417,7 @@
         <v>225</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -5425,7 +5425,7 @@
         <v>226</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
         <v>227</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -5441,7 +5441,7 @@
         <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -5449,7 +5449,7 @@
         <v>229</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -5457,7 +5457,7 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -5465,7 +5465,7 @@
         <v>231</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
         <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>233</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -5489,7 +5489,7 @@
         <v>234</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -5497,7 +5497,7 @@
         <v>235</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -5505,7 +5505,7 @@
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -5513,7 +5513,7 @@
         <v>237</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -5521,7 +5521,7 @@
         <v>238</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -5529,7 +5529,7 @@
         <v>239</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5537,7 +5537,7 @@
         <v>240</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -5545,7 +5545,7 @@
         <v>241</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -5553,7 +5553,7 @@
         <v>242</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -5561,7 +5561,7 @@
         <v>243</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -5569,7 +5569,7 @@
         <v>244</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -5577,7 +5577,7 @@
         <v>245</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -5585,7 +5585,7 @@
         <v>246</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -5593,7 +5593,7 @@
         <v>247</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -5601,7 +5601,7 @@
         <v>248</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
         <v>249</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -5617,7 +5617,7 @@
         <v>250</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
         <v>251</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -5633,7 +5633,7 @@
         <v>252</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
         <v>253</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>254</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -5657,7 +5657,7 @@
         <v>255</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -5665,7 +5665,7 @@
         <v>256</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -5673,7 +5673,7 @@
         <v>257</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -5681,7 +5681,7 @@
         <v>258</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -5689,7 +5689,7 @@
         <v>259</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -5697,7 +5697,7 @@
         <v>260</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -5705,7 +5705,7 @@
         <v>261</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -5713,7 +5713,7 @@
         <v>262</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>263</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -5729,7 +5729,7 @@
         <v>264</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -5737,7 +5737,7 @@
         <v>265</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>266</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>267</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5761,15 +5761,15 @@
         <v>268</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -5777,7 +5777,7 @@
         <v>269</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -5785,7 +5785,7 @@
         <v>270</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5793,7 +5793,7 @@
         <v>271</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
         <v>272</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -5809,7 +5809,7 @@
         <v>273</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -5817,7 +5817,7 @@
         <v>274</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5825,7 +5825,7 @@